--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01.25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="02.25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="03.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="04.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="05.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="06.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="07.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="08.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="09.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="11.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="12.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="01.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="02.25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="03.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="04.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="05.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="06.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="07.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="08.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="09.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15208,7 +15208,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>08/04/2025, 05/05/2025</t>
+          <t>05/05/2025, 08/04/2025</t>
         </is>
       </c>
       <c r="G49" s="7" t="inlineStr">
@@ -18773,9 +18773,9 @@
           <t>02/06/2025</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -18863,9 +18863,9 @@
           <t>03/06/2025</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -19123,12 +19123,16 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="16" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n"/>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -19747,12 +19751,16 @@
           <t>05/06/2025, 05/06/2025</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n"/>
+      <c r="G29" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>excluir o ID 4841</t>
+        </is>
+      </c>
       <c r="I29" s="3" t="n"/>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -19792,9 +19800,9 @@
           <t>04/06/2025</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G30" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H30" s="3" t="n"/>
@@ -19827,12 +19835,16 @@
           <t>Isadora Bussmann Barsotti</t>
         </is>
       </c>
-      <c r="E31" s="16" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="n"/>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -19972,9 +19984,9 @@
           <t>03/06/2025</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H34" s="3" t="n"/>
@@ -20107,9 +20119,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H37" s="3" t="n"/>
@@ -20283,9 +20295,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H41" s="3" t="n"/>
@@ -20946,9 +20958,9 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H56" s="3" t="n"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -21,7 +21,20 @@
     <sheet name="12.25" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="irregulares" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'04.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'05.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'06.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'07.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'08.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'09.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'10.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12.25'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -3347,6 +3360,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -5581,6 +5595,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -7815,6 +7830,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -10049,6 +10065,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -12885,6 +12902,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -15639,6 +15657,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -18389,6 +18408,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -21063,6 +21083,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -23305,6 +23326,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -25539,6 +25561,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -27773,6 +27796,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -30007,6 +30031,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -244,7 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -258,6 +258,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FF6666"/>
           <bgColor rgb="00FF6666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFA500"/>
+          <bgColor rgb="00FFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3376,30 +3384,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -5611,30 +5625,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -7846,30 +7866,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -10081,30 +10107,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -12918,30 +12950,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -15226,7 +15264,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>05/05/2025, 08/04/2025</t>
+          <t>08/04/2025, 05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="7" t="inlineStr">
@@ -15673,30 +15711,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -18424,30 +18468,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -20219,12 +20269,16 @@
           <t>Aramis Vinicius de Paula Oliveira</t>
         </is>
       </c>
-      <c r="E39" s="16" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="n"/>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -21099,30 +21153,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -23342,30 +23402,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -25577,30 +25643,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -27812,30 +27884,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -30047,30 +30125,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -726,7 +726,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3868,41 +3948,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,41 +6190,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8352,41 +8432,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10594,41 +10674,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12836,41 +12916,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15078,41 +15158,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33193,6 +33273,246 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:P9 E2:P2">
+    <cfRule type="cellIs" priority="319" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="320" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="321" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="322" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="323" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="324" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9">
+    <cfRule type="cellIs" priority="277" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="278" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="279" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="280" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="281" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="282" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9">
+    <cfRule type="cellIs" priority="271" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="272" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="273" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="274" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="275" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="276" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O9">
+    <cfRule type="cellIs" priority="265" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="266" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="267" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="268" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="269" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="270" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P9">
+    <cfRule type="cellIs" priority="259" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="260" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="261" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="262" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="263" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="264" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:P9">
+    <cfRule type="cellIs" priority="37" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="38" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="39" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="40" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="41" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="42" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:P24">
+    <cfRule type="cellIs" priority="31" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="33" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="34" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="35" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="36" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:P35">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="28" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:P40">
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:P50">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:P60">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:P70">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -51156,6 +51476,192 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:P9 E2:P2">
+    <cfRule type="cellIs" priority="79" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="80" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="81" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="82" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="83" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="84" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="49" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="50" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="51" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="52" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="53" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="54" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9">
+    <cfRule type="cellIs" priority="73" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="74" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="75" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="76" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="77" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="78" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9">
+    <cfRule type="cellIs" priority="67" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="68" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="69" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="70" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="71" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="72" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O9">
+    <cfRule type="cellIs" priority="61" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="62" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="63" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="64" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="65" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="66" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P9">
+    <cfRule type="cellIs" priority="55" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="56" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="57" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="58" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="59" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="60" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:P70">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:P9">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="6">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:P24">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="7">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:P35">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="6">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="7">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:P40">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="6">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="7">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:P50">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="6">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="7">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:P60">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="6">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="7">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -53841,41 +54347,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56583,41 +57089,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59345,41 +59851,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62103,41 +62609,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64789,41 +65295,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67039,41 +67545,41 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J58">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="11" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="12" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="15" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -22,7 +22,7 @@
     <sheet name="10.25" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="11.25" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="12.25" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="irregulares" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Irregulares" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'01.25'!$A$1:$G$1</definedName>
@@ -44,7 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="13">
     <font>
       <name val="Calibri"/>
@@ -495,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +722,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="52" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15217,7 +15222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -15233,6 +15238,8 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15271,6 +15278,16 @@
           <t>Mês de referência</t>
         </is>
       </c>
+      <c r="H1" s="60" t="inlineStr">
+        <is>
+          <t>Validado pelo Regional</t>
+        </is>
+      </c>
+      <c r="I1" s="60" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="61" t="inlineStr">
@@ -15308,6 +15325,8 @@
           <t>12.24</t>
         </is>
       </c>
+      <c r="H2" s="62" t="inlineStr"/>
+      <c r="I2" s="62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33274,102 +33293,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:P9 E2:P2">
-    <cfRule type="cellIs" priority="319" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="67" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="320" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="68" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="321" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="69" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="322" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="70" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="323" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="71" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="324" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="72" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M9">
-    <cfRule type="cellIs" priority="277" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="61" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="278" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="62" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="279" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="63" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="280" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="64" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="281" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="65" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="282" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="66" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N9">
-    <cfRule type="cellIs" priority="271" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="55" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="272" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="56" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="273" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="57" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="274" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="58" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="275" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="59" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="276" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="60" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O9">
-    <cfRule type="cellIs" priority="265" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="49" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="266" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="50" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="267" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="51" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="268" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="52" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="269" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="53" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="270" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="54" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P9">
-    <cfRule type="cellIs" priority="259" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="43" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="260" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="44" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="261" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="45" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="262" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="46" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="263" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="47" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="264" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="48" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51477,24 +51496,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:P9 E2:P2">
-    <cfRule type="cellIs" priority="79" operator="equal" dxfId="0">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="80" operator="equal" dxfId="1">
-      <formula>"UVR Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="81" operator="equal" dxfId="2">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="82" operator="equal" dxfId="3">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="83" operator="equal" dxfId="4">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="84" operator="equal" dxfId="5">
-      <formula>"Enviado"</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="49" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -51513,84 +51514,102 @@
     <cfRule type="cellIs" priority="54" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M9">
-    <cfRule type="cellIs" priority="73" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="43" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="74" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="44" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="75" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="45" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="76" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="46" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="77" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="47" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="78" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="48" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N9">
-    <cfRule type="cellIs" priority="67" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="37" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="68" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="38" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="69" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="39" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="70" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="40" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="71" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="41" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="72" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="42" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O9">
-    <cfRule type="cellIs" priority="61" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="31" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="62" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="32" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="63" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="33" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="64" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="34" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="65" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="35" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="66" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="36" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P9">
-    <cfRule type="cellIs" priority="55" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="56" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="1">
       <formula>"UVR Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="57" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="2">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="58" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="28" operator="equal" dxfId="3">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="59" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="4">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="60" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57167,7 +57186,7 @@
     <col width="132" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="49" customWidth="1" min="11" max="11"/>
+    <col width="92" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -57605,7 +57624,11 @@
           <t>Em Análise</t>
         </is>
       </c>
-      <c r="K9" s="62" t="n"/>
+      <c r="K9" s="62" t="inlineStr">
+        <is>
+          <t>Aguardando a Juliana voltar de férias para perguntar. A data parece ter sido corrigida.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="71" t="inlineStr">
@@ -62869,7 +62892,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H4" s="62" t="n"/>
+      <c r="H4" s="62" t="inlineStr">
+        <is>
+          <t>Sem técnico</t>
+        </is>
+      </c>
       <c r="I4" s="62" t="n"/>
       <c r="J4" s="62" t="inlineStr">
         <is>
@@ -63044,9 +63071,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G8" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G8" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H8" s="62" t="n"/>
@@ -63179,9 +63206,9 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G11" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G11" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="62" t="n"/>
@@ -63224,12 +63251,16 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G12" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H12" s="62" t="n"/>
+      <c r="G12" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H12" s="62" t="inlineStr">
+        <is>
+          <t>Solicitei tecnica revisar taxa de rejeito</t>
+        </is>
+      </c>
       <c r="I12" s="62" t="n"/>
       <c r="J12" s="62" t="inlineStr">
         <is>
@@ -63269,12 +63300,16 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G13" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="62" t="n"/>
+      <c r="G13" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H13" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Não preenchido completo </t>
+        </is>
+      </c>
       <c r="I13" s="62" t="n"/>
       <c r="J13" s="62" t="inlineStr">
         <is>
@@ -63314,12 +63349,16 @@
           <t>10/06/2025</t>
         </is>
       </c>
-      <c r="G14" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H14" s="62" t="n"/>
+      <c r="G14" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H14" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falta inserir as Notas fiscais </t>
+        </is>
+      </c>
       <c r="I14" s="62" t="n"/>
       <c r="J14" s="62" t="inlineStr">
         <is>
@@ -63359,9 +63398,9 @@
           <t>16/06/2025</t>
         </is>
       </c>
-      <c r="G15" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G15" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H15" s="62" t="n"/>
@@ -63842,9 +63881,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G26" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G26" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H26" s="62" t="n"/>
@@ -63887,9 +63926,9 @@
           <t>07/06/2025</t>
         </is>
       </c>
-      <c r="G27" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="62" t="n"/>
@@ -63932,9 +63971,9 @@
           <t>11/06/2025</t>
         </is>
       </c>
-      <c r="G28" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G28" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H28" s="62" t="n"/>
@@ -64071,16 +64110,12 @@
           <t>16/06/2025</t>
         </is>
       </c>
-      <c r="G31" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H31" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dia 13 ainda não preenchido pela Tecnica </t>
-        </is>
-      </c>
+      <c r="G31" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H31" s="62" t="n"/>
       <c r="I31" s="62" t="n"/>
       <c r="J31" s="62" t="inlineStr">
         <is>
@@ -64745,7 +64780,9 @@
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F46" s="62" t="n"/>
+      <c r="F46" s="76" t="n">
+        <v>45820</v>
+      </c>
       <c r="G46" s="66" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -64971,9 +65008,9 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G51" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G51" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H51" s="62" t="n"/>
@@ -65061,9 +65098,9 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G53" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G53" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H53" s="62" t="n"/>
@@ -65370,7 +65407,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="69" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -66834,7 +66871,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H39" s="62" t="n"/>
+      <c r="H39" s="62" t="inlineStr">
+        <is>
+          <t>ESSE FORMULARIO POSSIVELMENTE ESTA INCORRETO POIS ESTA ADIANTADO</t>
+        </is>
+      </c>
       <c r="I39" s="62" t="n"/>
       <c r="J39" s="62" t="inlineStr">
         <is>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -15325,10 +15325,27 @@
           <t>12.24</t>
         </is>
       </c>
-      <c r="H2" s="62" t="inlineStr"/>
+      <c r="H2" s="62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
       <c r="I2" s="62" t="inlineStr"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="9" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -37,6 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Irregulares'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -15222,7 +15223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -15235,11 +15236,10 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="27" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15265,25 +15265,20 @@
       </c>
       <c r="E1" s="60" t="inlineStr">
         <is>
-          <t>Situação</t>
+          <t>Data de Envio</t>
         </is>
       </c>
       <c r="F1" s="60" t="inlineStr">
         <is>
-          <t>Data de Envio</t>
+          <t>Mês de referência</t>
         </is>
       </c>
       <c r="G1" s="60" t="inlineStr">
         <is>
-          <t>Mês de referência</t>
+          <t>Validado pelo Regional</t>
         </is>
       </c>
       <c r="H1" s="60" t="inlineStr">
-        <is>
-          <t>Validado pelo Regional</t>
-        </is>
-      </c>
-      <c r="I1" s="60" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
@@ -15310,30 +15305,26 @@
           <t>Jéssica Bortolozzo</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E2" s="62" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
         </is>
       </c>
       <c r="F2" s="62" t="inlineStr">
         <is>
-          <t>09/02/2025</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="G2" s="62" t="inlineStr">
         <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="H2" s="62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="I2" s="62" t="inlineStr"/>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="62" t="inlineStr"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2">
+  <autoFilter ref="A1:G1"/>
+  <conditionalFormatting sqref="G2">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -15342,7 +15333,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="H2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
   </dataValidations>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -45,9 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="13">
     <font>
       <name val="Calibri"/>
@@ -498,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -725,9 +723,6 @@
     <xf numFmtId="0" fontId="12" fillId="52" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -795,21 +790,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1781,7 +1776,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -3482,7 +3477,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -3519,7 +3514,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -3603,7 +3598,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="62" t="n"/>
@@ -4023,7 +4018,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -5724,7 +5719,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -5761,7 +5756,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -5845,7 +5840,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="62" t="n"/>
@@ -6265,7 +6260,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -7966,7 +7961,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -8003,7 +7998,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -8087,7 +8082,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="62" t="n"/>
@@ -8507,7 +8502,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -10208,7 +10203,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -10245,7 +10240,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -10329,7 +10324,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="62" t="n"/>
@@ -10749,7 +10744,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -12450,7 +12445,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -12487,7 +12482,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -12571,7 +12566,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="62" t="n"/>
@@ -12991,7 +12986,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -14692,7 +14687,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -14729,7 +14724,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -14813,7 +14808,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="62" t="n"/>
@@ -15320,7 +15315,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="62" t="inlineStr"/>
+      <c r="H2" s="62" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -15358,9 +15353,22 @@
     <col width="18.5703125" customWidth="1" min="1" max="1"/>
     <col width="31.140625" customWidth="1" min="2" max="2"/>
     <col width="8.5703125" customWidth="1" min="3" max="3"/>
-    <col width="18.42578125" customWidth="1" min="4" max="4"/>
+    <col width="20.42578125" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="20.28515625" customWidth="1" min="6" max="6"/>
+    <col width="21.28515625" customWidth="1" min="7" max="7"/>
+    <col width="18.5703125" customWidth="1" min="8" max="8"/>
+    <col width="14.7109375" customWidth="1" min="9" max="9"/>
+    <col width="16.28515625" customWidth="1" min="10" max="10"/>
+    <col width="16.5703125" customWidth="1" min="11" max="11"/>
+    <col width="17.28515625" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="16.28515625" customWidth="1" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" min="15" max="15"/>
+    <col width="16.140625" customWidth="1" min="16" max="16"/>
     <col width="9.140625" customWidth="1" min="17" max="17"/>
     <col width="18.42578125" customWidth="1" min="19" max="19"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
     <col width="7.5703125" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -20469,7 +20477,7 @@
       </c>
       <c r="B20" s="28" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C20" s="28" t="inlineStr">
@@ -20772,7 +20780,7 @@
       </c>
       <c r="B21" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C21" s="28" t="inlineStr">
@@ -33561,9 +33569,16 @@
     <col width="18.5703125" customWidth="1" min="1" max="1"/>
     <col width="31.140625" customWidth="1" min="2" max="2"/>
     <col width="8.5703125" customWidth="1" min="3" max="3"/>
-    <col width="18.42578125" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="21.140625" customWidth="1" min="5" max="5"/>
+    <col width="18.5703125" customWidth="1" min="6" max="6"/>
+    <col width="18.28515625" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="16.7109375" customWidth="1" min="9" max="9"/>
+    <col width="8.85546875" customWidth="1" min="10" max="10"/>
     <col width="9.140625" customWidth="1" min="17" max="17"/>
     <col width="18.42578125" customWidth="1" min="19" max="19"/>
+    <col width="19.7109375" customWidth="1" min="20" max="20"/>
     <col width="7.5703125" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -38672,7 +38687,7 @@
       </c>
       <c r="B20" s="28" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C20" s="28" t="inlineStr">
@@ -38975,7 +38990,7 @@
       </c>
       <c r="B21" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C21" s="28" t="inlineStr">
@@ -51504,6 +51519,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:P9 E2:P2">
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="3">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="4">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="5">
+      <formula>"Enviado"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="49" operator="equal" dxfId="0">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -51520,24 +51553,6 @@
       <formula>"Atrasado"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="54" operator="equal" dxfId="5">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
-      <formula>"UVR Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="3">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="4">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="5">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51642,51 +51657,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:P9">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="7">
       <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="7">
-      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:P24">
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7">
       <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="7">
-      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:P35">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="6">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="7">
       <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="7">
-      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:P40">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="6">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="7">
       <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="7">
-      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:P50">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="6">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="7">
       <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="7">
-      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:P60">
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="6">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="7">
       <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="7">
-      <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51709,7 +51724,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="39" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -53786,7 +53801,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -53831,7 +53846,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -54443,7 +54458,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -56524,7 +56539,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -56569,7 +56584,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -57185,7 +57200,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -59286,7 +59301,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -59335,7 +59350,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -59951,7 +59966,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -62060,7 +62075,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -62109,7 +62124,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -62709,7 +62724,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -62799,9 +62814,9 @@
           <t>Marcia do Nascimento</t>
         </is>
       </c>
-      <c r="E2" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E2" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F2" s="62" t="n"/>
@@ -62889,9 +62904,9 @@
           <t>Amanda Tayara Ribeiro da Silva</t>
         </is>
       </c>
-      <c r="E4" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E4" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F4" s="62" t="n"/>
@@ -62989,9 +63004,9 @@
           <t>05/06/2025</t>
         </is>
       </c>
-      <c r="G6" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G6" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H6" s="62" t="n"/>
@@ -63576,9 +63591,9 @@
         </is>
       </c>
       <c r="D19" s="62" t="n"/>
-      <c r="E19" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -63717,9 +63732,9 @@
           <t>12/06/2025</t>
         </is>
       </c>
-      <c r="G22" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G22" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="62" t="n"/>
@@ -63762,9 +63777,9 @@
           <t>12/06/2025</t>
         </is>
       </c>
-      <c r="G23" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G23" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H23" s="62" t="n"/>
@@ -63797,18 +63812,26 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="62" t="n"/>
+      <c r="E24" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="62" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
       <c r="G24" s="64" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H24" s="62" t="n"/>
+      <c r="H24" s="62" t="inlineStr">
+        <is>
+          <t>Não tem dados</t>
+        </is>
+      </c>
       <c r="I24" s="62" t="n"/>
       <c r="J24" s="62" t="inlineStr">
         <is>
@@ -63838,9 +63861,9 @@
           <t>Marcos Alexandre Cordeiro Esmocoviski</t>
         </is>
       </c>
-      <c r="E25" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E25" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F25" s="62" t="n"/>
@@ -64163,9 +64186,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G32" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G32" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H32" s="62" t="n"/>
@@ -64298,9 +64321,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G35" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G35" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H35" s="62" t="n"/>
@@ -64343,9 +64366,9 @@
           <t>03/06/2025</t>
         </is>
       </c>
-      <c r="G36" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G36" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H36" s="62" t="n"/>
@@ -64478,9 +64501,9 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G39" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G39" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H39" s="62" t="n"/>
@@ -64658,12 +64681,16 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G43" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H43" s="62" t="n"/>
+      <c r="G43" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H43" s="62" t="inlineStr">
+        <is>
+          <t>Aguardando correções</t>
+        </is>
+      </c>
       <c r="I43" s="62" t="n"/>
       <c r="J43" s="62" t="inlineStr">
         <is>
@@ -64703,9 +64730,9 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G44" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G44" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H44" s="62" t="n"/>
@@ -64770,7 +64797,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -64783,13 +64810,15 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F46" s="76" t="n">
-        <v>45820</v>
+      <c r="E46" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="62" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
       </c>
       <c r="G46" s="66" t="inlineStr">
         <is>
@@ -64813,7 +64842,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -64926,9 +64955,9 @@
           <t>06/06/2025</t>
         </is>
       </c>
-      <c r="G49" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G49" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H49" s="62" t="n"/>
@@ -64971,9 +65000,9 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G50" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G50" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H50" s="62" t="n"/>
@@ -65137,15 +65166,15 @@
         </is>
       </c>
       <c r="D54" s="62" t="n"/>
-      <c r="E54" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E54" s="74" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F54" s="62" t="n"/>
-      <c r="G54" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G54" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H54" s="62" t="n"/>
@@ -65409,7 +65438,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="52" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
@@ -65499,7 +65528,11 @@
           <t>Marcia do Nascimento</t>
         </is>
       </c>
-      <c r="E2" s="62" t="n"/>
+      <c r="E2" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="62" t="n"/>
       <c r="G2" s="64" t="inlineStr">
         <is>
@@ -65536,7 +65569,11 @@
           <t>Marcia Regina Willers</t>
         </is>
       </c>
-      <c r="E3" s="62" t="n"/>
+      <c r="E3" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="62" t="n"/>
       <c r="G3" s="64" t="inlineStr">
         <is>
@@ -65573,7 +65610,11 @@
           <t>Amanda Tayara Ribeiro da Silva</t>
         </is>
       </c>
-      <c r="E4" s="62" t="n"/>
+      <c r="E4" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="62" t="n"/>
       <c r="G4" s="64" t="inlineStr">
         <is>
@@ -65610,8 +65651,16 @@
           <t>Vagner Perseti Alves</t>
         </is>
       </c>
-      <c r="E5" s="62" t="n"/>
-      <c r="F5" s="62" t="n"/>
+      <c r="E5" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G5" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65647,8 +65696,16 @@
           <t>Tania Grespan</t>
         </is>
       </c>
-      <c r="E6" s="62" t="n"/>
-      <c r="F6" s="62" t="n"/>
+      <c r="E6" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G6" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65684,8 +65741,16 @@
           <t>Daniele de Souza Lima Mei</t>
         </is>
       </c>
-      <c r="E7" s="62" t="n"/>
-      <c r="F7" s="62" t="n"/>
+      <c r="E7" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G7" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65721,7 +65786,11 @@
           <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
         </is>
       </c>
-      <c r="E8" s="62" t="n"/>
+      <c r="E8" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="62" t="n"/>
       <c r="G8" s="64" t="inlineStr">
         <is>
@@ -65758,8 +65827,16 @@
           <t>Elder Arantes</t>
         </is>
       </c>
-      <c r="E9" s="62" t="n"/>
-      <c r="F9" s="62" t="n"/>
+      <c r="E9" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="62" t="inlineStr">
+        <is>
+          <t>06/07/2025</t>
+        </is>
+      </c>
       <c r="G9" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65795,8 +65872,16 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E10" s="62" t="n"/>
-      <c r="F10" s="62" t="n"/>
+      <c r="E10" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G10" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65832,7 +65917,11 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E11" s="62" t="n"/>
+      <c r="E11" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="n"/>
       <c r="G11" s="64" t="inlineStr">
         <is>
@@ -65869,7 +65958,11 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E12" s="62" t="n"/>
+      <c r="E12" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="64" t="inlineStr">
         <is>
@@ -65906,7 +65999,11 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E13" s="62" t="n"/>
+      <c r="E13" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="64" t="inlineStr">
         <is>
@@ -65943,7 +66040,11 @@
           <t>Hayana dos Santos Jaines</t>
         </is>
       </c>
-      <c r="E14" s="62" t="n"/>
+      <c r="E14" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="64" t="inlineStr">
         <is>
@@ -65980,7 +66081,11 @@
           <t>Evellyn Renata Bereza Bueno</t>
         </is>
       </c>
-      <c r="E15" s="62" t="n"/>
+      <c r="E15" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="64" t="inlineStr">
         <is>
@@ -66017,8 +66122,16 @@
           <t>Anandra da Silva</t>
         </is>
       </c>
-      <c r="E16" s="62" t="n"/>
-      <c r="F16" s="62" t="n"/>
+      <c r="E16" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="62" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
       <c r="G16" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66054,8 +66167,16 @@
           <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
         </is>
       </c>
-      <c r="E17" s="62" t="n"/>
-      <c r="F17" s="62" t="n"/>
+      <c r="E17" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G17" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66091,8 +66212,16 @@
           <t>Jéssica da Silva Bortolozzo</t>
         </is>
       </c>
-      <c r="E18" s="62" t="n"/>
-      <c r="F18" s="62" t="n"/>
+      <c r="E18" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="62" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
       <c r="G18" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66124,7 +66253,11 @@
         </is>
       </c>
       <c r="D19" s="62" t="n"/>
-      <c r="E19" s="62" t="n"/>
+      <c r="E19" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
         <is>
@@ -66161,8 +66294,16 @@
           <t>Bianca Monteiro</t>
         </is>
       </c>
-      <c r="E20" s="62" t="n"/>
-      <c r="F20" s="62" t="n"/>
+      <c r="E20" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="62" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
       <c r="G20" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66198,7 +66339,11 @@
           <t>Augusto Cesar Nunes</t>
         </is>
       </c>
-      <c r="E21" s="62" t="n"/>
+      <c r="E21" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="62" t="n"/>
       <c r="G21" s="64" t="inlineStr">
         <is>
@@ -66235,7 +66380,11 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E22" s="62" t="n"/>
+      <c r="E22" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="64" t="inlineStr">
         <is>
@@ -66272,7 +66421,11 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E23" s="62" t="n"/>
+      <c r="E23" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="62" t="n"/>
       <c r="G23" s="64" t="inlineStr">
         <is>
@@ -66309,7 +66462,11 @@
           <t>Amanda Cristina Beal Acosta</t>
         </is>
       </c>
-      <c r="E24" s="62" t="n"/>
+      <c r="E24" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="62" t="n"/>
       <c r="G24" s="64" t="inlineStr">
         <is>
@@ -66346,7 +66503,11 @@
           <t>Marcos Alexandre Cordeiro Esmocoviski</t>
         </is>
       </c>
-      <c r="E25" s="62" t="n"/>
+      <c r="E25" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="62" t="n"/>
       <c r="G25" s="64" t="inlineStr">
         <is>
@@ -66383,8 +66544,16 @@
           <t>Rodrigo Lima</t>
         </is>
       </c>
-      <c r="E26" s="62" t="n"/>
-      <c r="F26" s="62" t="n"/>
+      <c r="E26" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G26" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66420,8 +66589,16 @@
           <t>Savana Lemes Rodrigues</t>
         </is>
       </c>
-      <c r="E27" s="62" t="n"/>
-      <c r="F27" s="62" t="n"/>
+      <c r="E27" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="62" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
       <c r="G27" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66457,8 +66634,16 @@
           <t>Letícia Diniz</t>
         </is>
       </c>
-      <c r="E28" s="62" t="n"/>
-      <c r="F28" s="62" t="n"/>
+      <c r="E28" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G28" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66494,8 +66679,16 @@
           <t>Tais Muller</t>
         </is>
       </c>
-      <c r="E29" s="62" t="n"/>
-      <c r="F29" s="62" t="n"/>
+      <c r="E29" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="62" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
       <c r="G29" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66531,8 +66724,16 @@
           <t>Eusebio Lima Deltrejo</t>
         </is>
       </c>
-      <c r="E30" s="62" t="n"/>
-      <c r="F30" s="62" t="n"/>
+      <c r="E30" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G30" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66568,8 +66769,16 @@
           <t>Isadora Bussmann Barsotti</t>
         </is>
       </c>
-      <c r="E31" s="62" t="n"/>
-      <c r="F31" s="62" t="n"/>
+      <c r="E31" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="62" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
       <c r="G31" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66605,7 +66814,11 @@
           <t>Osair Wrublak</t>
         </is>
       </c>
-      <c r="E32" s="62" t="n"/>
+      <c r="E32" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="64" t="inlineStr">
         <is>
@@ -66642,7 +66855,11 @@
           <t>Gislaine Souza Rosa</t>
         </is>
       </c>
-      <c r="E33" s="62" t="n"/>
+      <c r="E33" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="62" t="n"/>
       <c r="G33" s="64" t="inlineStr">
         <is>
@@ -66679,7 +66896,11 @@
           <t>Rayra Emanuelly da Costa</t>
         </is>
       </c>
-      <c r="E34" s="62" t="n"/>
+      <c r="E34" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="64" t="inlineStr">
         <is>
@@ -66716,8 +66937,16 @@
           <t>Suzana Gotardo de Meira</t>
         </is>
       </c>
-      <c r="E35" s="62" t="n"/>
-      <c r="F35" s="62" t="n"/>
+      <c r="E35" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G35" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66753,8 +66982,16 @@
           <t>Mariangela Lurdes de Borba</t>
         </is>
       </c>
-      <c r="E36" s="62" t="n"/>
-      <c r="F36" s="62" t="n"/>
+      <c r="E36" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="62" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
       <c r="G36" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66790,8 +67027,16 @@
           <t>Patricia Teixeira dos Santos</t>
         </is>
       </c>
-      <c r="E37" s="62" t="n"/>
-      <c r="F37" s="62" t="n"/>
+      <c r="E37" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G37" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66827,8 +67072,16 @@
           <t>Anderson Batista Siqueira</t>
         </is>
       </c>
-      <c r="E38" s="62" t="n"/>
-      <c r="F38" s="62" t="n"/>
+      <c r="E38" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G38" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66913,8 +67166,16 @@
           <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
         </is>
       </c>
-      <c r="E40" s="62" t="n"/>
-      <c r="F40" s="62" t="n"/>
+      <c r="E40" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G40" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66950,8 +67211,16 @@
           <t>Gustavo Henrique de Andrade</t>
         </is>
       </c>
-      <c r="E41" s="62" t="n"/>
-      <c r="F41" s="62" t="n"/>
+      <c r="E41" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G41" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66987,8 +67256,16 @@
           <t>Ricardo Pyc</t>
         </is>
       </c>
-      <c r="E42" s="62" t="n"/>
-      <c r="F42" s="62" t="n"/>
+      <c r="E42" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="62" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
       <c r="G42" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67024,7 +67301,11 @@
           <t>Camila Maytana Flores da Silva</t>
         </is>
       </c>
-      <c r="E43" s="62" t="n"/>
+      <c r="E43" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="62" t="n"/>
       <c r="G43" s="64" t="inlineStr">
         <is>
@@ -67061,8 +67342,16 @@
           <t>Claudiana Andria</t>
         </is>
       </c>
-      <c r="E44" s="62" t="n"/>
-      <c r="F44" s="62" t="n"/>
+      <c r="E44" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="62" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
       <c r="G44" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67098,8 +67387,16 @@
           <t>Daiana Aparecida Dias</t>
         </is>
       </c>
-      <c r="E45" s="62" t="n"/>
-      <c r="F45" s="62" t="n"/>
+      <c r="E45" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="62" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
       <c r="G45" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67122,7 +67419,7 @@
       </c>
       <c r="B46" s="62" t="inlineStr">
         <is>
-          <t>Rio Branco Do Sul Acavari</t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C46" s="62" t="inlineStr">
@@ -67135,7 +67432,11 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E46" s="62" t="n"/>
+      <c r="E46" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F46" s="62" t="n"/>
       <c r="G46" s="64" t="inlineStr">
         <is>
@@ -67159,7 +67460,7 @@
       </c>
       <c r="B47" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rio Branco Do Sul Acamari </t>
+          <t xml:space="preserve">Rio Branco Do Sul </t>
         </is>
       </c>
       <c r="C47" s="62" t="inlineStr">
@@ -67172,7 +67473,11 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="62" t="n"/>
+      <c r="E47" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="64" t="inlineStr">
         <is>
@@ -67209,8 +67514,16 @@
           <t>Jean Eriksen de Miranda</t>
         </is>
       </c>
-      <c r="E48" s="62" t="n"/>
-      <c r="F48" s="62" t="n"/>
+      <c r="E48" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="62" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
       <c r="G48" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67243,10 +67556,14 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
-        </is>
-      </c>
-      <c r="E49" s="62" t="n"/>
+          <t>Ana Paula Cigolini</t>
+        </is>
+      </c>
+      <c r="E49" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="64" t="inlineStr">
         <is>
@@ -67283,8 +67600,16 @@
           <t>Vilmar Ribeiro</t>
         </is>
       </c>
-      <c r="E50" s="62" t="n"/>
-      <c r="F50" s="62" t="n"/>
+      <c r="E50" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G50" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67320,7 +67645,11 @@
           <t>Ana Carolina Bertolaccini</t>
         </is>
       </c>
-      <c r="E51" s="62" t="n"/>
+      <c r="E51" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="62" t="n"/>
       <c r="G51" s="64" t="inlineStr">
         <is>
@@ -67357,8 +67686,16 @@
           <t>Maristela da Silva de Oliveira Melo</t>
         </is>
       </c>
-      <c r="E52" s="62" t="n"/>
-      <c r="F52" s="62" t="n"/>
+      <c r="E52" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G52" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67394,7 +67731,11 @@
           <t>Yuri Luiz de Oliveira</t>
         </is>
       </c>
-      <c r="E53" s="62" t="n"/>
+      <c r="E53" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="64" t="inlineStr">
         <is>
@@ -67427,7 +67768,11 @@
         </is>
       </c>
       <c r="D54" s="62" t="n"/>
-      <c r="E54" s="62" t="n"/>
+      <c r="E54" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
         <is>
@@ -67464,7 +67809,11 @@
           <t>Eliane Stefani Dantas Dias</t>
         </is>
       </c>
-      <c r="E55" s="62" t="n"/>
+      <c r="E55" s="75" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="62" t="n"/>
       <c r="G55" s="64" t="inlineStr">
         <is>
@@ -67501,8 +67850,16 @@
           <t>Diego Batista</t>
         </is>
       </c>
-      <c r="E56" s="62" t="n"/>
-      <c r="F56" s="62" t="n"/>
+      <c r="E56" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="62" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
       <c r="G56" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67538,8 +67895,16 @@
           <t>Fernanda Naiara Voinarski</t>
         </is>
       </c>
-      <c r="E57" s="62" t="n"/>
-      <c r="F57" s="62" t="n"/>
+      <c r="E57" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="62" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G57" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67575,8 +67940,16 @@
           <t>Pablo Bruno Rosa Oliveira</t>
         </is>
       </c>
-      <c r="E58" s="62" t="n"/>
-      <c r="F58" s="62" t="n"/>
+      <c r="E58" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="62" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
       <c r="G58" s="64" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -1778,7 +1778,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -1861,10 +1861,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
@@ -1898,10 +1897,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
@@ -1935,10 +1933,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
@@ -1972,10 +1969,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
@@ -2009,10 +2005,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
@@ -2046,10 +2041,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
@@ -2083,10 +2077,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
@@ -2120,10 +2113,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
@@ -2157,10 +2149,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
@@ -2194,10 +2185,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
@@ -2231,10 +2221,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
@@ -2268,10 +2257,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
@@ -2305,10 +2293,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
@@ -2342,10 +2329,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
@@ -2379,10 +2365,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
@@ -2416,10 +2401,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
@@ -2453,10 +2437,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
@@ -2490,7 +2473,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
@@ -2523,10 +2509,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
@@ -2560,10 +2545,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
@@ -2597,10 +2581,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
@@ -2634,10 +2617,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
@@ -2671,10 +2653,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
@@ -2708,10 +2689,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
@@ -2745,10 +2725,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
@@ -2782,10 +2761,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
@@ -2819,10 +2797,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
@@ -2856,10 +2833,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
@@ -2893,10 +2869,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
@@ -2930,10 +2905,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
@@ -2967,10 +2941,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
@@ -3004,10 +2977,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
@@ -3041,10 +3013,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
@@ -3078,10 +3049,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
@@ -3115,10 +3085,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
@@ -3152,10 +3121,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
@@ -3189,10 +3157,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
@@ -3226,10 +3193,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
@@ -3263,10 +3229,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
@@ -3300,10 +3265,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
@@ -3337,10 +3301,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
@@ -3374,10 +3337,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
@@ -3411,10 +3373,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
@@ -3448,10 +3409,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
@@ -3485,10 +3445,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
@@ -3522,10 +3481,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
@@ -3559,10 +3517,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
@@ -3596,10 +3553,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
@@ -3633,10 +3589,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
@@ -3670,10 +3625,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
@@ -3707,10 +3661,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
@@ -3744,10 +3697,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
@@ -3781,7 +3733,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
@@ -3814,10 +3769,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
@@ -3851,10 +3805,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
@@ -3888,10 +3841,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
@@ -3925,10 +3877,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
@@ -4020,7 +3971,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -4103,10 +4054,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
@@ -4140,10 +4090,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
@@ -4177,10 +4126,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
@@ -4214,10 +4162,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
@@ -4251,10 +4198,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
@@ -4288,10 +4234,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
@@ -4325,10 +4270,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
@@ -4362,10 +4306,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
@@ -4399,10 +4342,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
@@ -4436,10 +4378,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
@@ -4473,10 +4414,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
@@ -4510,10 +4450,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
@@ -4547,10 +4486,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
@@ -4584,10 +4522,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
@@ -4621,10 +4558,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
@@ -4658,10 +4594,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
@@ -4695,10 +4630,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
@@ -4732,7 +4666,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
@@ -4765,10 +4702,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
@@ -4802,10 +4738,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
@@ -4839,10 +4774,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
@@ -4876,10 +4810,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
@@ -4913,10 +4846,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
@@ -4950,10 +4882,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
@@ -4987,10 +4918,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
@@ -5024,10 +4954,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
@@ -5061,10 +4990,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
@@ -5098,10 +5026,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
@@ -5135,10 +5062,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
@@ -5172,10 +5098,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
@@ -5209,10 +5134,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
@@ -5246,10 +5170,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
@@ -5283,10 +5206,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
@@ -5320,10 +5242,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
@@ -5357,10 +5278,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
@@ -5394,10 +5314,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
@@ -5431,10 +5350,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
@@ -5468,10 +5386,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
@@ -5505,10 +5422,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
@@ -5542,10 +5458,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
@@ -5579,10 +5494,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
@@ -5616,10 +5530,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
@@ -5653,10 +5566,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
@@ -5690,10 +5602,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
@@ -5727,10 +5638,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
@@ -5764,10 +5674,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
@@ -5801,10 +5710,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
@@ -5838,10 +5746,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
@@ -5875,10 +5782,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
@@ -5912,10 +5818,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
@@ -5949,10 +5854,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
@@ -5986,10 +5890,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
@@ -6023,7 +5926,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
@@ -6056,10 +5962,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
@@ -6093,10 +5998,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
@@ -6130,10 +6034,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
@@ -6167,10 +6070,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
@@ -6262,7 +6164,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -6345,10 +6247,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
@@ -6382,10 +6283,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
@@ -6419,10 +6319,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
@@ -6456,10 +6355,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
@@ -6493,10 +6391,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
@@ -6530,10 +6427,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
@@ -6567,10 +6463,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
@@ -6604,10 +6499,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
@@ -6641,10 +6535,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
@@ -6678,10 +6571,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
@@ -6715,10 +6607,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
@@ -6752,10 +6643,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
@@ -6789,10 +6679,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
@@ -6826,10 +6715,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
@@ -6863,10 +6751,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
@@ -6900,10 +6787,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
@@ -6937,10 +6823,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
@@ -6974,7 +6859,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
@@ -7007,10 +6895,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
@@ -7044,10 +6931,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
@@ -7081,10 +6967,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
@@ -7118,10 +7003,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
@@ -7155,10 +7039,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
@@ -7192,10 +7075,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
@@ -7229,10 +7111,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
@@ -7266,10 +7147,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
@@ -7303,10 +7183,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
@@ -7340,10 +7219,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
@@ -7377,10 +7255,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
@@ -7414,10 +7291,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
@@ -7451,10 +7327,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
@@ -7488,10 +7363,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
@@ -7525,10 +7399,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
@@ -7562,10 +7435,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
@@ -7599,10 +7471,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
@@ -7636,10 +7507,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
@@ -7673,10 +7543,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
@@ -7710,10 +7579,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
@@ -7747,10 +7615,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
@@ -7784,10 +7651,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
@@ -7821,10 +7687,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
@@ -7858,10 +7723,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
@@ -7895,10 +7759,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
@@ -7932,10 +7795,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
@@ -7969,10 +7831,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
@@ -8006,10 +7867,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
@@ -8043,10 +7903,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
@@ -8080,10 +7939,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
@@ -8117,10 +7975,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
@@ -8154,10 +8011,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
@@ -8191,10 +8047,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
@@ -8228,10 +8083,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
@@ -8265,7 +8119,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
@@ -8298,10 +8155,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
@@ -8335,10 +8191,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
@@ -8372,10 +8227,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
@@ -8409,10 +8263,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
@@ -8504,7 +8357,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -8587,10 +8440,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
@@ -8624,10 +8476,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
@@ -8661,10 +8512,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
@@ -8698,10 +8548,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
@@ -8735,10 +8584,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
@@ -8772,10 +8620,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
@@ -8809,10 +8656,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
@@ -8846,10 +8692,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
@@ -8883,10 +8728,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
@@ -8920,10 +8764,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
@@ -8957,10 +8800,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
@@ -8994,10 +8836,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
@@ -9031,10 +8872,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
@@ -9068,10 +8908,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
@@ -9105,10 +8944,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
@@ -9142,10 +8980,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
@@ -9179,10 +9016,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
@@ -9216,7 +9052,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
@@ -9249,10 +9088,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
@@ -9286,10 +9124,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
@@ -9323,10 +9160,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
@@ -9360,10 +9196,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
@@ -9397,10 +9232,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
@@ -9434,10 +9268,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
@@ -9471,10 +9304,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
@@ -9508,10 +9340,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
@@ -9545,10 +9376,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
@@ -9582,10 +9412,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
@@ -9619,10 +9448,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
@@ -9656,10 +9484,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
@@ -9693,10 +9520,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
@@ -9730,10 +9556,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
@@ -9767,10 +9592,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
@@ -9804,10 +9628,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
@@ -9841,10 +9664,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
@@ -9878,10 +9700,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
@@ -9915,10 +9736,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
@@ -9952,10 +9772,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
@@ -9989,10 +9808,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
@@ -10026,10 +9844,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
@@ -10063,10 +9880,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
@@ -10100,10 +9916,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
@@ -10137,10 +9952,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
@@ -10174,10 +9988,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
@@ -10211,10 +10024,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
@@ -10248,10 +10060,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
@@ -10285,10 +10096,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
@@ -10322,10 +10132,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
@@ -10359,10 +10168,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
@@ -10396,10 +10204,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
@@ -10433,10 +10240,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
@@ -10470,10 +10276,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
@@ -10507,7 +10312,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
@@ -10540,10 +10348,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
@@ -10577,10 +10384,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
@@ -10614,10 +10420,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
@@ -10651,10 +10456,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
@@ -10746,7 +10550,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -10829,10 +10633,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
@@ -10866,10 +10669,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
@@ -10903,10 +10705,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
@@ -10940,10 +10741,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
@@ -10977,10 +10777,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
@@ -11014,10 +10813,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
@@ -11051,10 +10849,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
@@ -11088,10 +10885,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
@@ -11125,10 +10921,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
@@ -11162,10 +10957,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
@@ -11199,10 +10993,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
@@ -11236,10 +11029,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
@@ -11273,10 +11065,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
@@ -11310,10 +11101,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
@@ -11347,10 +11137,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
@@ -11384,10 +11173,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
@@ -11421,10 +11209,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
@@ -11458,7 +11245,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
@@ -11491,10 +11281,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
@@ -11528,10 +11317,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
@@ -11565,10 +11353,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
@@ -11602,10 +11389,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
@@ -11639,10 +11425,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
@@ -11676,10 +11461,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
@@ -11713,10 +11497,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
@@ -11750,10 +11533,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
@@ -11787,10 +11569,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
@@ -11824,10 +11605,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
@@ -11861,10 +11641,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
@@ -11898,10 +11677,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
@@ -11935,10 +11713,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
@@ -11972,10 +11749,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
@@ -12009,10 +11785,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
@@ -12046,10 +11821,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
@@ -12083,10 +11857,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
@@ -12120,10 +11893,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
@@ -12157,10 +11929,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
@@ -12194,10 +11965,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
@@ -12231,10 +12001,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
@@ -12268,10 +12037,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
@@ -12305,10 +12073,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
@@ -12342,10 +12109,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
@@ -12379,10 +12145,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
@@ -12416,10 +12181,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
@@ -12453,10 +12217,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
@@ -12490,10 +12253,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
@@ -12527,10 +12289,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
@@ -12564,10 +12325,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
@@ -12601,10 +12361,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
@@ -12638,10 +12397,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
@@ -12675,10 +12433,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
@@ -12712,10 +12469,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
@@ -12749,7 +12505,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
@@ -12782,10 +12541,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
@@ -12819,10 +12577,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
@@ -12856,10 +12613,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
@@ -12893,10 +12649,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
@@ -12988,7 +12743,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -13071,10 +12826,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="62" t="n"/>
       <c r="F2" s="62" t="n"/>
@@ -13108,10 +12862,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="62" t="n"/>
@@ -13145,10 +12898,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="62" t="n"/>
       <c r="F4" s="62" t="n"/>
@@ -13182,10 +12934,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="62" t="n"/>
       <c r="F5" s="62" t="n"/>
@@ -13219,10 +12970,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="62" t="n"/>
       <c r="F6" s="62" t="n"/>
@@ -13256,10 +13006,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="62" t="n"/>
       <c r="F7" s="62" t="n"/>
@@ -13293,10 +13042,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="62" t="n"/>
       <c r="F8" s="62" t="n"/>
@@ -13330,10 +13078,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="62" t="n"/>
       <c r="F9" s="62" t="n"/>
@@ -13367,10 +13114,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
@@ -13404,10 +13150,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
@@ -13441,10 +13186,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="62" t="n"/>
       <c r="F12" s="62" t="n"/>
@@ -13478,10 +13222,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="62" t="n"/>
       <c r="F13" s="62" t="n"/>
@@ -13515,10 +13258,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
@@ -13552,10 +13294,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
@@ -13589,10 +13330,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
@@ -13626,10 +13366,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
@@ -13663,10 +13402,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="62" t="n"/>
       <c r="F18" s="62" t="n"/>
@@ -13700,7 +13438,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
       <c r="G19" s="64" t="inlineStr">
@@ -13733,10 +13474,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
@@ -13770,10 +13510,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
@@ -13807,10 +13546,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
@@ -13844,10 +13582,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
@@ -13881,10 +13618,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
@@ -13918,10 +13654,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
@@ -13955,10 +13690,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
@@ -13992,10 +13726,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
@@ -14029,10 +13762,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
@@ -14066,10 +13798,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
@@ -14103,10 +13834,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
@@ -14140,10 +13870,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
@@ -14177,10 +13906,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="62" t="n"/>
       <c r="F32" s="62" t="n"/>
@@ -14214,10 +13942,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
@@ -14251,10 +13978,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
@@ -14288,10 +14014,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
@@ -14325,10 +14050,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
@@ -14362,10 +14086,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
@@ -14399,10 +14122,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
@@ -14436,10 +14158,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
@@ -14473,10 +14194,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
@@ -14510,10 +14230,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
@@ -14547,10 +14266,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
@@ -14584,10 +14302,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
@@ -14621,10 +14338,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
@@ -14658,10 +14374,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
@@ -14695,10 +14410,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="62" t="n"/>
       <c r="F46" s="62" t="n"/>
@@ -14732,10 +14446,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="62" t="n"/>
       <c r="F47" s="62" t="n"/>
@@ -14769,10 +14482,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="62" t="n"/>
       <c r="F48" s="62" t="n"/>
@@ -14806,10 +14518,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="62" t="n"/>
       <c r="F49" s="62" t="n"/>
@@ -14843,10 +14554,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="62" t="n"/>
       <c r="F50" s="62" t="n"/>
@@ -14880,10 +14590,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="62" t="n"/>
       <c r="F51" s="62" t="n"/>
@@ -14917,10 +14626,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="62" t="n"/>
       <c r="F52" s="62" t="n"/>
@@ -14954,10 +14662,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="62" t="n"/>
       <c r="F53" s="62" t="n"/>
@@ -14991,7 +14698,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="62" t="n"/>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="64" t="inlineStr">
@@ -15024,10 +14734,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="62" t="n"/>
       <c r="F55" s="62" t="n"/>
@@ -15061,10 +14770,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="62" t="n"/>
       <c r="F56" s="62" t="n"/>
@@ -15098,10 +14806,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="62" t="n"/>
       <c r="F57" s="62" t="n"/>
@@ -15135,10 +14842,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="62" t="n"/>
       <c r="F58" s="62" t="n"/>
@@ -51726,7 +51432,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -54460,7 +54166,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -54543,10 +54249,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="63" t="inlineStr">
         <is>
@@ -54588,10 +54293,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
@@ -54641,10 +54345,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
@@ -54686,10 +54389,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
@@ -54731,10 +54433,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
@@ -54776,10 +54477,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
@@ -54821,10 +54521,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
@@ -54866,10 +54565,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
@@ -54911,10 +54609,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
@@ -54956,10 +54653,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
@@ -55001,10 +54697,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
@@ -55046,10 +54741,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="65" t="inlineStr">
         <is>
@@ -55091,10 +54785,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="65" t="inlineStr">
         <is>
@@ -55136,10 +54829,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="65" t="inlineStr">
         <is>
@@ -55181,10 +54873,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="65" t="inlineStr">
         <is>
@@ -55226,10 +54917,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="65" t="inlineStr">
         <is>
@@ -55275,10 +54965,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="65" t="inlineStr">
         <is>
@@ -55324,7 +55013,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="73" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
@@ -55361,10 +55053,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
@@ -55406,10 +55097,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="65" t="inlineStr">
         <is>
@@ -55451,10 +55141,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="65" t="inlineStr">
         <is>
@@ -55496,10 +55185,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="65" t="inlineStr">
         <is>
@@ -55541,10 +55229,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="65" t="inlineStr">
         <is>
@@ -55586,10 +55273,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="65" t="inlineStr">
         <is>
@@ -55631,10 +55317,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="65" t="inlineStr">
         <is>
@@ -55676,10 +55361,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="65" t="inlineStr">
         <is>
@@ -55725,10 +55409,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="65" t="inlineStr">
         <is>
@@ -55774,10 +55457,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="65" t="inlineStr">
         <is>
@@ -55823,10 +55505,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="65" t="inlineStr">
         <is>
@@ -55868,10 +55549,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="65" t="inlineStr">
         <is>
@@ -55913,10 +55593,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="65" t="inlineStr">
         <is>
@@ -55958,10 +55637,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="65" t="inlineStr">
         <is>
@@ -56003,10 +55681,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="65" t="inlineStr">
         <is>
@@ -56048,10 +55725,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="65" t="inlineStr">
         <is>
@@ -56093,10 +55769,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="65" t="inlineStr">
         <is>
@@ -56138,10 +55813,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="65" t="inlineStr">
         <is>
@@ -56183,10 +55857,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="65" t="inlineStr">
         <is>
@@ -56228,10 +55901,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="65" t="inlineStr">
         <is>
@@ -56273,10 +55945,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="65" t="inlineStr">
         <is>
@@ -56318,10 +55989,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="65" t="inlineStr">
         <is>
@@ -56363,10 +56033,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="65" t="inlineStr">
         <is>
@@ -56408,10 +56077,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="65" t="inlineStr">
         <is>
@@ -56453,10 +56121,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="65" t="inlineStr">
         <is>
@@ -56498,10 +56165,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="65" t="inlineStr">
         <is>
@@ -56547,10 +56213,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="65" t="inlineStr">
         <is>
@@ -56592,10 +56257,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="74" t="inlineStr">
         <is>
@@ -56637,10 +56301,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="65" t="inlineStr">
         <is>
@@ -56686,10 +56349,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Moacir Roberto Heimann</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="65" t="inlineStr">
         <is>
@@ -56731,10 +56393,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="65" t="inlineStr">
         <is>
@@ -56776,10 +56437,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="65" t="inlineStr">
         <is>
@@ -56821,10 +56481,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="65" t="inlineStr">
         <is>
@@ -56878,10 +56537,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="65" t="inlineStr">
         <is>
@@ -56923,7 +56581,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="73" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
@@ -56960,10 +56621,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="65" t="inlineStr">
         <is>
@@ -57005,10 +56665,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="65" t="inlineStr">
         <is>
@@ -57050,10 +56709,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="65" t="inlineStr">
         <is>
@@ -57099,10 +56757,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="65" t="inlineStr">
         <is>
@@ -57202,7 +56859,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -57285,10 +56942,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="63" t="inlineStr">
         <is>
@@ -57330,10 +56986,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
@@ -57387,10 +57042,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
@@ -57436,10 +57090,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
@@ -57481,10 +57134,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
@@ -57526,10 +57178,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
@@ -57571,10 +57222,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
@@ -57616,10 +57266,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
@@ -57669,10 +57318,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
@@ -57718,10 +57366,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
@@ -57767,10 +57414,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
@@ -57812,10 +57458,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="65" t="inlineStr">
         <is>
@@ -57857,10 +57502,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="65" t="inlineStr">
         <is>
@@ -57906,10 +57550,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="65" t="inlineStr">
         <is>
@@ -57955,10 +57598,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="65" t="inlineStr">
         <is>
@@ -58000,10 +57642,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="65" t="inlineStr">
         <is>
@@ -58049,10 +57690,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="65" t="inlineStr">
         <is>
@@ -58094,7 +57734,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="73" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
@@ -58131,10 +57774,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
@@ -58176,10 +57818,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="65" t="inlineStr">
         <is>
@@ -58221,10 +57862,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="65" t="inlineStr">
         <is>
@@ -58266,10 +57906,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="65" t="inlineStr">
         <is>
@@ -58311,10 +57950,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="65" t="inlineStr">
         <is>
@@ -58356,10 +57994,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="65" t="inlineStr">
         <is>
@@ -58401,10 +58038,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="65" t="inlineStr">
         <is>
@@ -58446,10 +58082,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="65" t="inlineStr">
         <is>
@@ -58491,10 +58126,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="65" t="inlineStr">
         <is>
@@ -58540,10 +58174,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="65" t="inlineStr">
         <is>
@@ -58585,10 +58218,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="65" t="inlineStr">
         <is>
@@ -58630,10 +58262,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="65" t="inlineStr">
         <is>
@@ -58675,10 +58306,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="65" t="inlineStr">
         <is>
@@ -58720,10 +58350,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="65" t="inlineStr">
         <is>
@@ -58765,10 +58394,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="65" t="inlineStr">
         <is>
@@ -58810,10 +58438,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="65" t="inlineStr">
         <is>
@@ -58855,10 +58482,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="65" t="inlineStr">
         <is>
@@ -58900,10 +58526,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="65" t="inlineStr">
         <is>
@@ -58945,10 +58570,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="65" t="inlineStr">
         <is>
@@ -58990,10 +58614,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="65" t="inlineStr">
         <is>
@@ -59035,10 +58658,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="65" t="inlineStr">
         <is>
@@ -59080,10 +58702,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="65" t="inlineStr">
         <is>
@@ -59125,10 +58746,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="65" t="inlineStr">
         <is>
@@ -59170,10 +58790,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="65" t="inlineStr">
         <is>
@@ -59215,10 +58834,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="65" t="inlineStr">
         <is>
@@ -59260,10 +58878,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="65" t="inlineStr">
         <is>
@@ -59309,10 +58926,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="65" t="inlineStr">
         <is>
@@ -59358,10 +58974,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="74" t="inlineStr">
         <is>
@@ -59403,10 +59018,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="65" t="inlineStr">
         <is>
@@ -59452,10 +59066,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Moacir Roberto Heimann</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="74" t="inlineStr">
         <is>
@@ -59501,10 +59114,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="65" t="inlineStr">
         <is>
@@ -59546,10 +59158,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="65" t="inlineStr">
         <is>
@@ -59591,10 +59202,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="65" t="inlineStr">
         <is>
@@ -59640,10 +59250,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="65" t="inlineStr">
         <is>
@@ -59685,7 +59294,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="73" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
@@ -59722,10 +59334,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="65" t="inlineStr">
         <is>
@@ -59771,10 +59382,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="65" t="inlineStr">
         <is>
@@ -59816,10 +59426,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="65" t="inlineStr">
         <is>
@@ -59865,10 +59474,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="65" t="inlineStr">
         <is>
@@ -59968,7 +59576,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -60051,10 +59659,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="63" t="inlineStr">
         <is>
@@ -60096,10 +59703,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
@@ -60141,10 +59747,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="63" t="inlineStr">
         <is>
@@ -60182,10 +59787,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
@@ -60227,10 +59831,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
@@ -60272,10 +59875,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
@@ -60317,10 +59919,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
@@ -60362,10 +59963,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
@@ -60419,10 +60019,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
@@ -60468,10 +60067,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
@@ -60517,10 +60115,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
@@ -60566,10 +60163,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="65" t="inlineStr">
         <is>
@@ -60615,10 +60211,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="65" t="inlineStr">
         <is>
@@ -60664,10 +60259,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="65" t="inlineStr">
         <is>
@@ -60709,10 +60303,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="65" t="inlineStr">
         <is>
@@ -60754,10 +60347,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="65" t="inlineStr">
         <is>
@@ -60799,10 +60391,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="65" t="inlineStr">
         <is>
@@ -60844,7 +60435,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="73" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
@@ -60881,10 +60475,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
@@ -60926,10 +60519,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="65" t="inlineStr">
         <is>
@@ -60971,10 +60563,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="65" t="inlineStr">
         <is>
@@ -61020,10 +60611,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="65" t="inlineStr">
         <is>
@@ -61069,10 +60659,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="65" t="inlineStr">
         <is>
@@ -61118,10 +60707,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="65" t="inlineStr">
         <is>
@@ -61163,10 +60751,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="65" t="inlineStr">
         <is>
@@ -61208,10 +60795,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="65" t="inlineStr">
         <is>
@@ -61253,10 +60839,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="65" t="inlineStr">
         <is>
@@ -61298,10 +60883,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="65" t="inlineStr">
         <is>
@@ -61355,10 +60939,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="65" t="inlineStr">
         <is>
@@ -61400,10 +60983,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="65" t="inlineStr">
         <is>
@@ -61445,10 +61027,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="65" t="inlineStr">
         <is>
@@ -61490,10 +61071,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="65" t="inlineStr">
         <is>
@@ -61535,10 +61115,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="65" t="inlineStr">
         <is>
@@ -61580,10 +61159,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="65" t="inlineStr">
         <is>
@@ -61629,10 +61207,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="65" t="inlineStr">
         <is>
@@ -61674,10 +61251,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="65" t="inlineStr">
         <is>
@@ -61719,10 +61295,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="65" t="inlineStr">
         <is>
@@ -61764,10 +61339,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="65" t="inlineStr">
         <is>
@@ -61809,10 +61383,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="65" t="inlineStr">
         <is>
@@ -61854,10 +61427,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="65" t="inlineStr">
         <is>
@@ -61899,10 +61471,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="65" t="inlineStr">
         <is>
@@ -61944,10 +61515,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="65" t="inlineStr">
         <is>
@@ -61993,10 +61563,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="65" t="inlineStr">
         <is>
@@ -62038,10 +61607,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="65" t="inlineStr">
         <is>
@@ -62083,10 +61651,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="65" t="inlineStr">
         <is>
@@ -62132,10 +61699,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="74" t="inlineStr">
         <is>
@@ -62177,10 +61743,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="65" t="inlineStr">
         <is>
@@ -62222,10 +61787,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Moacir Roberto Heimann</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="65" t="inlineStr">
         <is>
@@ -62267,10 +61831,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="65" t="inlineStr">
         <is>
@@ -62312,10 +61875,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="65" t="inlineStr">
         <is>
@@ -62357,10 +61919,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="65" t="inlineStr">
         <is>
@@ -62402,10 +61963,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="65" t="inlineStr">
         <is>
@@ -62447,7 +62007,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="73" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
@@ -62484,10 +62047,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="65" t="inlineStr">
         <is>
@@ -62529,10 +62091,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="65" t="inlineStr">
         <is>
@@ -62574,10 +62135,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="65" t="inlineStr">
         <is>
@@ -62619,10 +62179,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="65" t="inlineStr">
         <is>
@@ -62726,7 +62285,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -62809,10 +62368,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="63" t="inlineStr">
         <is>
@@ -62854,10 +62412,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
@@ -62899,10 +62456,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="63" t="inlineStr">
         <is>
@@ -62944,10 +62500,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
@@ -62989,10 +62544,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
@@ -63034,10 +62588,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
@@ -63079,10 +62632,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
@@ -63124,10 +62676,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
@@ -63169,10 +62720,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
@@ -63214,10 +62764,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
@@ -63259,10 +62808,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
@@ -63308,10 +62856,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="65" t="inlineStr">
         <is>
@@ -63357,10 +62904,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="65" t="inlineStr">
         <is>
@@ -63406,10 +62952,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="65" t="inlineStr">
         <is>
@@ -63451,10 +62996,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="65" t="inlineStr">
         <is>
@@ -63496,10 +63040,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="65" t="inlineStr">
         <is>
@@ -63545,10 +63088,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="65" t="inlineStr">
         <is>
@@ -63590,7 +63132,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="63" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
@@ -63627,10 +63172,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
@@ -63672,10 +63216,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="65" t="inlineStr">
         <is>
@@ -63717,10 +63260,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="65" t="inlineStr">
         <is>
@@ -63762,10 +63304,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="65" t="inlineStr">
         <is>
@@ -63807,10 +63348,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="65" t="inlineStr">
         <is>
@@ -63856,10 +63396,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="63" t="inlineStr">
         <is>
@@ -63897,10 +63436,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="65" t="inlineStr">
         <is>
@@ -63942,10 +63480,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="65" t="inlineStr">
         <is>
@@ -63987,10 +63524,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="65" t="inlineStr">
         <is>
@@ -64032,10 +63568,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="74" t="inlineStr">
         <is>
@@ -64081,10 +63616,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="65" t="inlineStr">
         <is>
@@ -64126,10 +63660,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="65" t="inlineStr">
         <is>
@@ -64171,10 +63704,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="65" t="inlineStr">
         <is>
@@ -64216,10 +63748,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="65" t="inlineStr">
         <is>
@@ -64261,10 +63792,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="65" t="inlineStr">
         <is>
@@ -64306,10 +63836,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="65" t="inlineStr">
         <is>
@@ -64351,10 +63880,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="65" t="inlineStr">
         <is>
@@ -64396,10 +63924,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="65" t="inlineStr">
         <is>
@@ -64441,10 +63968,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="65" t="inlineStr">
         <is>
@@ -64486,10 +64012,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="65" t="inlineStr">
         <is>
@@ -64531,10 +64056,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="65" t="inlineStr">
         <is>
@@ -64576,10 +64100,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="65" t="inlineStr">
         <is>
@@ -64621,10 +64144,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="65" t="inlineStr">
         <is>
@@ -64666,10 +64188,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="65" t="inlineStr">
         <is>
@@ -64715,10 +64236,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="65" t="inlineStr">
         <is>
@@ -64760,10 +64280,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="65" t="inlineStr">
         <is>
@@ -64805,10 +64324,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="65" t="inlineStr">
         <is>
@@ -64850,10 +64368,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="74" t="inlineStr">
         <is>
@@ -64895,10 +64412,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="65" t="inlineStr">
         <is>
@@ -64940,10 +64456,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Moacir Roberto Heimann</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="65" t="inlineStr">
         <is>
@@ -64985,10 +64500,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="65" t="inlineStr">
         <is>
@@ -65030,10 +64544,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="65" t="inlineStr">
         <is>
@@ -65075,10 +64588,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="65" t="inlineStr">
         <is>
@@ -65120,10 +64632,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="65" t="inlineStr">
         <is>
@@ -65165,7 +64676,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="74" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
@@ -65202,10 +64716,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="65" t="inlineStr">
         <is>
@@ -65247,10 +64760,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="65" t="inlineStr">
         <is>
@@ -65292,10 +64804,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="65" t="inlineStr">
         <is>
@@ -65337,10 +64848,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="65" t="inlineStr">
         <is>
@@ -65440,7 +64950,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="52" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -65523,10 +65033,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
-        <is>
-          <t>Marcia do Nascimento</t>
-        </is>
+      <c r="D2" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="75" t="inlineStr">
         <is>
@@ -65564,10 +65073,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D3" s="62" t="inlineStr">
-        <is>
-          <t>Marcia Regina Willers</t>
-        </is>
+      <c r="D3" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="75" t="inlineStr">
         <is>
@@ -65605,10 +65113,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
-        </is>
+      <c r="D4" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="75" t="inlineStr">
         <is>
@@ -65646,10 +65153,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D5" s="62" t="inlineStr">
-        <is>
-          <t>Vagner Perseti Alves</t>
-        </is>
+      <c r="D5" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
@@ -65691,10 +65197,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D6" s="62" t="inlineStr">
-        <is>
-          <t>Tania Grespan</t>
-        </is>
+      <c r="D6" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
@@ -65736,10 +65241,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D7" s="62" t="inlineStr">
-        <is>
-          <t>Daniele de Souza Lima Mei</t>
-        </is>
+      <c r="D7" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
@@ -65781,10 +65285,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunice Fernandes Gonzaga </t>
-        </is>
+      <c r="D8" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="75" t="inlineStr">
         <is>
@@ -65822,10 +65325,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D9" s="62" t="inlineStr">
-        <is>
-          <t>Elder Arantes</t>
-        </is>
+      <c r="D9" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
@@ -65867,10 +65369,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D10" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
@@ -65912,10 +65413,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D11" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D11" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="75" t="inlineStr">
         <is>
@@ -65953,10 +65453,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D12" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="75" t="inlineStr">
         <is>
@@ -65994,10 +65493,9 @@
           <t>04</t>
         </is>
       </c>
-      <c r="D13" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D13" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="75" t="inlineStr">
         <is>
@@ -66035,10 +65533,9 @@
           <t>05</t>
         </is>
       </c>
-      <c r="D14" s="62" t="inlineStr">
-        <is>
-          <t>Hayana dos Santos Jaines</t>
-        </is>
+      <c r="D14" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="75" t="inlineStr">
         <is>
@@ -66076,10 +65573,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D15" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
+      <c r="D15" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E15" s="75" t="inlineStr">
         <is>
@@ -66117,10 +65613,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D16" s="62" t="inlineStr">
-        <is>
-          <t>Anandra da Silva</t>
-        </is>
+      <c r="D16" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E16" s="65" t="inlineStr">
         <is>
@@ -66162,10 +65657,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D17" s="62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Jorge de Oliveira Fernandes Moreira </t>
-        </is>
+      <c r="D17" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="65" t="inlineStr">
         <is>
@@ -66207,10 +65701,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D18" s="62" t="inlineStr">
-        <is>
-          <t>Jéssica da Silva Bortolozzo</t>
-        </is>
+      <c r="D18" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="65" t="inlineStr">
         <is>
@@ -66252,7 +65745,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
+      <c r="D19" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E19" s="75" t="inlineStr">
         <is>
           <t>Atrasado</t>
@@ -66289,10 +65785,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D20" s="62" t="inlineStr">
-        <is>
-          <t>Bianca Monteiro</t>
-        </is>
+      <c r="D20" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
@@ -66334,10 +65829,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D21" s="62" t="inlineStr">
-        <is>
-          <t>Augusto Cesar Nunes</t>
-        </is>
+      <c r="D21" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="75" t="inlineStr">
         <is>
@@ -66375,10 +65869,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D22" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D22" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="75" t="inlineStr">
         <is>
@@ -66416,10 +65909,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D23" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D23" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="75" t="inlineStr">
         <is>
@@ -66457,10 +65949,9 @@
           <t>03</t>
         </is>
       </c>
-      <c r="D24" s="62" t="inlineStr">
-        <is>
-          <t>Amanda Cristina Beal Acosta</t>
-        </is>
+      <c r="D24" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="75" t="inlineStr">
         <is>
@@ -66498,10 +65989,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D25" s="62" t="inlineStr">
-        <is>
-          <t>Marcos Alexandre Cordeiro Esmocoviski</t>
-        </is>
+      <c r="D25" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="75" t="inlineStr">
         <is>
@@ -66539,10 +66029,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D26" s="62" t="inlineStr">
-        <is>
-          <t>Rodrigo Lima</t>
-        </is>
+      <c r="D26" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="65" t="inlineStr">
         <is>
@@ -66584,10 +66073,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D27" s="62" t="inlineStr">
-        <is>
-          <t>Savana Lemes Rodrigues</t>
-        </is>
+      <c r="D27" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="65" t="inlineStr">
         <is>
@@ -66629,10 +66117,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D28" s="62" t="inlineStr">
-        <is>
-          <t>Letícia Diniz</t>
-        </is>
+      <c r="D28" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="65" t="inlineStr">
         <is>
@@ -66674,10 +66161,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D29" s="62" t="inlineStr">
-        <is>
-          <t>Tais Muller</t>
-        </is>
+      <c r="D29" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="65" t="inlineStr">
         <is>
@@ -66719,10 +66205,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D30" s="62" t="inlineStr">
-        <is>
-          <t>Eusebio Lima Deltrejo</t>
-        </is>
+      <c r="D30" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="65" t="inlineStr">
         <is>
@@ -66764,10 +66249,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D31" s="62" t="inlineStr">
-        <is>
-          <t>Isadora Bussmann Barsotti</t>
-        </is>
+      <c r="D31" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="65" t="inlineStr">
         <is>
@@ -66809,10 +66293,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D32" s="62" t="inlineStr">
-        <is>
-          <t>Osair Wrublak</t>
-        </is>
+      <c r="D32" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="75" t="inlineStr">
         <is>
@@ -66850,10 +66333,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D33" s="62" t="inlineStr">
-        <is>
-          <t>Gislaine Souza Rosa</t>
-        </is>
+      <c r="D33" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="75" t="inlineStr">
         <is>
@@ -66891,10 +66373,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D34" s="62" t="inlineStr">
-        <is>
-          <t>Rayra Emanuelly da Costa</t>
-        </is>
+      <c r="D34" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="75" t="inlineStr">
         <is>
@@ -66932,10 +66413,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D35" s="62" t="inlineStr">
-        <is>
-          <t>Suzana Gotardo de Meira</t>
-        </is>
+      <c r="D35" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="65" t="inlineStr">
         <is>
@@ -66977,10 +66457,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D36" s="62" t="inlineStr">
-        <is>
-          <t>Mariangela Lurdes de Borba</t>
-        </is>
+      <c r="D36" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="65" t="inlineStr">
         <is>
@@ -67022,10 +66501,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D37" s="62" t="inlineStr">
-        <is>
-          <t>Patricia Teixeira dos Santos</t>
-        </is>
+      <c r="D37" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="65" t="inlineStr">
         <is>
@@ -67067,10 +66545,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D38" s="62" t="inlineStr">
-        <is>
-          <t>Anderson Batista Siqueira</t>
-        </is>
+      <c r="D38" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="65" t="inlineStr">
         <is>
@@ -67112,10 +66589,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D39" s="62" t="inlineStr">
-        <is>
-          <t>Aramis Vinicius de Paula Oliveira</t>
-        </is>
+      <c r="D39" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="65" t="inlineStr">
         <is>
@@ -67161,10 +66637,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D40" s="62" t="inlineStr">
-        <is>
-          <t>Gabriela Magdalena Sartorelli da Silva Margonar</t>
-        </is>
+      <c r="D40" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="65" t="inlineStr">
         <is>
@@ -67206,10 +66681,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D41" s="62" t="inlineStr">
-        <is>
-          <t>Gustavo Henrique de Andrade</t>
-        </is>
+      <c r="D41" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="65" t="inlineStr">
         <is>
@@ -67251,10 +66725,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D42" s="62" t="inlineStr">
-        <is>
-          <t>Ricardo Pyc</t>
-        </is>
+      <c r="D42" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="65" t="inlineStr">
         <is>
@@ -67296,10 +66769,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D43" s="62" t="inlineStr">
-        <is>
-          <t>Camila Maytana Flores da Silva</t>
-        </is>
+      <c r="D43" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="75" t="inlineStr">
         <is>
@@ -67337,10 +66809,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D44" s="62" t="inlineStr">
-        <is>
-          <t>Claudiana Andria</t>
-        </is>
+      <c r="D44" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="65" t="inlineStr">
         <is>
@@ -67382,10 +66853,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D45" s="62" t="inlineStr">
-        <is>
-          <t>Daiana Aparecida Dias</t>
-        </is>
+      <c r="D45" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="65" t="inlineStr">
         <is>
@@ -67427,10 +66897,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D46" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D46" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="75" t="inlineStr">
         <is>
@@ -67468,10 +66937,9 @@
           <t>02</t>
         </is>
       </c>
-      <c r="D47" s="62" t="inlineStr">
-        <is>
-          <t>João Henrique Assunção de Sousa</t>
-        </is>
+      <c r="D47" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="75" t="inlineStr">
         <is>
@@ -67509,10 +66977,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D48" s="62" t="inlineStr">
-        <is>
-          <t>Jean Eriksen de Miranda</t>
-        </is>
+      <c r="D48" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="65" t="inlineStr">
         <is>
@@ -67554,10 +67021,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D49" s="62" t="inlineStr">
-        <is>
-          <t>Ana Paula Cigolini</t>
-        </is>
+      <c r="D49" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="75" t="inlineStr">
         <is>
@@ -67595,10 +67061,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D50" s="62" t="inlineStr">
-        <is>
-          <t>Vilmar Ribeiro</t>
-        </is>
+      <c r="D50" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="65" t="inlineStr">
         <is>
@@ -67640,10 +67105,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D51" s="62" t="inlineStr">
-        <is>
-          <t>Ana Carolina Bertolaccini</t>
-        </is>
+      <c r="D51" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="75" t="inlineStr">
         <is>
@@ -67681,10 +67145,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D52" s="62" t="inlineStr">
-        <is>
-          <t>Maristela da Silva de Oliveira Melo</t>
-        </is>
+      <c r="D52" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="65" t="inlineStr">
         <is>
@@ -67726,10 +67189,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D53" s="62" t="inlineStr">
-        <is>
-          <t>Yuri Luiz de Oliveira</t>
-        </is>
+      <c r="D53" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="75" t="inlineStr">
         <is>
@@ -67767,7 +67229,10 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D54" s="62" t="n"/>
+      <c r="D54" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E54" s="75" t="inlineStr">
         <is>
           <t>Atrasado</t>
@@ -67804,10 +67269,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D55" s="62" t="inlineStr">
-        <is>
-          <t>Eliane Stefani Dantas Dias</t>
-        </is>
+      <c r="D55" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="75" t="inlineStr">
         <is>
@@ -67845,10 +67309,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D56" s="62" t="inlineStr">
-        <is>
-          <t>Diego Batista</t>
-        </is>
+      <c r="D56" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="65" t="inlineStr">
         <is>
@@ -67890,10 +67353,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D57" s="62" t="inlineStr">
-        <is>
-          <t>Fernanda Naiara Voinarski</t>
-        </is>
+      <c r="D57" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="65" t="inlineStr">
         <is>
@@ -67935,10 +67397,9 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D58" s="62" t="inlineStr">
-        <is>
-          <t>Pablo Bruno Rosa Oliveira</t>
-        </is>
+      <c r="D58" s="62">
+        <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="65" t="inlineStr">
         <is>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -3197,8 +3197,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="62" t="n"/>
-      <c r="F39" s="62" t="n"/>
+      <c r="E39" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G39" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14924,7 +14932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -14933,14 +14941,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14984,6 +14995,21 @@
           <t>Observações</t>
         </is>
       </c>
+      <c r="I1" s="60" t="inlineStr">
+        <is>
+          <t>Formulários para Deletar (ID)</t>
+        </is>
+      </c>
+      <c r="J1" s="60" t="inlineStr">
+        <is>
+          <t>Validado Equipe de TI</t>
+        </is>
+      </c>
+      <c r="K1" s="60" t="inlineStr">
+        <is>
+          <t>Resposta Equipe de TI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="61" t="inlineStr">
@@ -15022,10 +15048,115 @@
         </is>
       </c>
       <c r="H2" s="62" t="n"/>
+      <c r="I2" s="62" t="inlineStr"/>
+      <c r="J2" s="62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="62" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="72" t="inlineStr">
+        <is>
+          <t>Laranjeiras do Sul</t>
+        </is>
+      </c>
+      <c r="B3" s="62" t="inlineStr">
+        <is>
+          <t>Laranjeiras do Sul</t>
+        </is>
+      </c>
+      <c r="C3" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="62" t="inlineStr">
+        <is>
+          <t>Osair Wrublak</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="F3" s="62" t="inlineStr">
+        <is>
+          <t>06.05</t>
+        </is>
+      </c>
+      <c r="G3" s="62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="62" t="inlineStr"/>
+      <c r="I3" s="62" t="inlineStr"/>
+      <c r="J3" s="62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K3" s="62" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="71" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="B4" s="62" t="inlineStr">
+        <is>
+          <t>Campo Magro</t>
+        </is>
+      </c>
+      <c r="C4" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="62" t="inlineStr">
+        <is>
+          <t>Evellyn Renata Bereza Bueno</t>
+        </is>
+      </c>
+      <c r="E4" s="62" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F4" s="62" t="inlineStr">
+        <is>
+          <t>01.24</t>
+        </is>
+      </c>
+      <c r="G4" s="62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="62" t="inlineStr"/>
+      <c r="I4" s="62" t="inlineStr"/>
+      <c r="J4" s="62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="62" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="G2:G4">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="9" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -15034,7 +15165,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G2:G4 J2:J4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15064,7 +15195,7 @@
     <col width="20.28515625" customWidth="1" min="6" max="6"/>
     <col width="21.28515625" customWidth="1" min="7" max="7"/>
     <col width="18.5703125" customWidth="1" min="8" max="8"/>
-    <col width="14.7109375" customWidth="1" min="9" max="9"/>
+    <col width="17.42578125" customWidth="1" min="9" max="9"/>
     <col width="16.28515625" customWidth="1" min="10" max="10"/>
     <col width="16.5703125" customWidth="1" min="11" max="11"/>
     <col width="17.28515625" customWidth="1" min="12" max="12"/>
@@ -62860,14 +62991,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="65" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E13" s="74" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>09/06/2025, 10/07/2025</t>
         </is>
       </c>
       <c r="G13" s="66" t="inlineStr">
@@ -63400,12 +63531,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="63" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F25" s="62" t="n"/>
+      <c r="E25" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G25" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65077,12 +65212,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="62" t="n"/>
+      <c r="E3" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G3" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65289,12 +65428,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F8" s="62" t="n"/>
+      <c r="E8" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="62" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
       <c r="G8" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65417,12 +65560,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="62" t="n"/>
+      <c r="E11" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G11" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65457,12 +65604,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="62" t="n"/>
+      <c r="E12" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="62" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
       <c r="G12" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65497,12 +65648,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="62" t="n"/>
+      <c r="E13" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="62" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
       <c r="G13" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65537,12 +65692,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="62" t="n"/>
+      <c r="E14" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="62" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
       <c r="G14" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65833,12 +65992,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="62" t="n"/>
+      <c r="E21" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G21" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66297,12 +66460,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="62" t="n"/>
+      <c r="E32" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G32" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66337,12 +66504,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="62" t="n"/>
+      <c r="E33" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G33" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66773,12 +66944,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="62" t="n"/>
+      <c r="E43" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="62" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
       <c r="G43" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67109,12 +67284,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="62" t="n"/>
+      <c r="E51" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
       <c r="G51" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67273,12 +67452,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="62" t="n"/>
+      <c r="E55" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="62" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
       <c r="G55" s="64" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -415,14 +415,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -14932,7 +14932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -14944,7 +14944,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -15092,7 +15092,7 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H3" s="62" t="inlineStr"/>
+      <c r="H3" s="62" t="n"/>
       <c r="I3" s="62" t="inlineStr"/>
       <c r="J3" s="62" t="inlineStr">
         <is>
@@ -15101,54 +15101,9 @@
       </c>
       <c r="K3" s="62" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="71" t="inlineStr">
-        <is>
-          <t>Curitiba</t>
-        </is>
-      </c>
-      <c r="B4" s="62" t="inlineStr">
-        <is>
-          <t>Campo Magro</t>
-        </is>
-      </c>
-      <c r="C4" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" s="62" t="inlineStr">
-        <is>
-          <t>Evellyn Renata Bereza Bueno</t>
-        </is>
-      </c>
-      <c r="E4" s="62" t="inlineStr">
-        <is>
-          <t>10/02/2025</t>
-        </is>
-      </c>
-      <c r="F4" s="62" t="inlineStr">
-        <is>
-          <t>01.24</t>
-        </is>
-      </c>
-      <c r="G4" s="62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="62" t="inlineStr"/>
-      <c r="I4" s="62" t="inlineStr"/>
-      <c r="J4" s="62" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K4" s="62" t="inlineStr"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G3">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -15156,7 +15111,7 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -15165,7 +15120,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G2:G4 J2:J4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G2:G3 J2:J3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
   </dataValidations>
@@ -52435,10 +52390,14 @@
           <t>01</t>
         </is>
       </c>
-      <c r="D19" s="62" t="n"/>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="D19" s="62" t="inlineStr">
+        <is>
+          <t>Tássia Castelli</t>
+        </is>
+      </c>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -53108,7 +53067,7 @@
       </c>
       <c r="D34" s="62" t="inlineStr">
         <is>
-          <t>Rayra Emanuelly da Costa</t>
+          <t>Leticia Framesche</t>
         </is>
       </c>
       <c r="E34" s="65" t="inlineStr">
@@ -53696,7 +53655,7 @@
           <t>João Henrique Assunção de Sousa</t>
         </is>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -53783,7 +53742,7 @@
       </c>
       <c r="D49" s="62" t="inlineStr">
         <is>
-          <t>Moacir Roberto Heimann</t>
+          <t>Ana Paula Cigolini</t>
         </is>
       </c>
       <c r="E49" s="65" t="inlineStr">
@@ -54011,7 +53970,7 @@
         </is>
       </c>
       <c r="D54" s="62" t="n"/>
-      <c r="E54" s="73" t="inlineStr">
+      <c r="E54" s="74" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
         </is>
@@ -54097,9 +54056,9 @@
           <t xml:space="preserve">Diego Batista </t>
         </is>
       </c>
-      <c r="E56" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E56" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F56" s="62" t="n"/>
@@ -55148,9 +55107,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -56392,7 +56351,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -56716,9 +56675,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E54" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="62" t="n"/>
@@ -57869,9 +57828,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -59109,7 +59068,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -59201,14 +59160,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="74" t="inlineStr">
+      <c r="E49" s="73" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>05/05/2025, 08/04/2025</t>
+          <t>08/04/2025, 05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="66" t="inlineStr">
@@ -59429,7 +59388,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="73" t="inlineStr">
+      <c r="E54" s="74" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
         </is>
@@ -60570,9 +60529,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="73" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E19" s="63" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="62" t="n"/>
@@ -61834,7 +61793,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -62142,7 +62101,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="73" t="inlineStr">
+      <c r="E54" s="74" t="inlineStr">
         <is>
           <t>UVR Sem Técnico</t>
         </is>
@@ -62991,7 +62950,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="74" t="inlineStr">
+      <c r="E13" s="73" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -63707,7 +63666,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="74" t="inlineStr">
+      <c r="E29" s="73" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -64507,7 +64466,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="inlineStr">
+      <c r="E47" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -64815,7 +64774,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="74" t="inlineStr">
+      <c r="E54" s="73" t="inlineStr">
         <is>
           <t>Outras Ocorrências</t>
         </is>
@@ -65355,7 +65314,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H6" s="62" t="n"/>
+      <c r="H6" s="62" t="inlineStr">
+        <is>
+          <t>Correção do fundo de caixa</t>
+        </is>
+      </c>
       <c r="I6" s="62" t="n"/>
       <c r="J6" s="62" t="inlineStr">
         <is>
@@ -65736,12 +65699,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="62" t="n"/>
+      <c r="E15" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t>14/07/2025</t>
+        </is>
+      </c>
       <c r="G15" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -65786,9 +65753,9 @@
           <t>02/07/2025</t>
         </is>
       </c>
-      <c r="G16" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G16" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H16" s="62" t="n"/>
@@ -66002,9 +65969,9 @@
           <t>08/07/2025</t>
         </is>
       </c>
-      <c r="G21" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G21" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H21" s="62" t="n"/>
@@ -66036,15 +66003,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="62" t="n"/>
-      <c r="G22" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E22" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="G22" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="62" t="n"/>
@@ -66076,15 +66047,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="62" t="n"/>
-      <c r="G23" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E23" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="G23" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H23" s="62" t="n"/>
@@ -66116,15 +66091,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="62" t="n"/>
-      <c r="G24" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E24" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="G24" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H24" s="62" t="n"/>
@@ -66156,12 +66135,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="62" t="n"/>
+      <c r="E25" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
       <c r="G25" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66548,12 +66531,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="62" t="n"/>
+      <c r="E34" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="62" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
       <c r="G34" s="64" t="inlineStr">
         <is>
           <t>Não</t>
@@ -66771,7 +66758,7 @@
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="G39" s="64" t="inlineStr">
@@ -66954,9 +66941,9 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G43" s="64" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="66" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="62" t="n"/>
@@ -67211,7 +67198,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H49" s="62" t="n"/>
+      <c r="H49" s="62" t="inlineStr">
+        <is>
+          <t>Não terá lançamento por enquanto, técnica nova.</t>
+        </is>
+      </c>
       <c r="I49" s="62" t="n"/>
       <c r="J49" s="62" t="inlineStr">
         <is>
@@ -67372,12 +67363,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="75" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="62" t="n"/>
+      <c r="E53" s="65" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="62" t="inlineStr">
+        <is>
+          <t>14/07/2025</t>
+        </is>
+      </c>
       <c r="G53" s="64" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -3397,19 +3397,19 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -3437,7 +3437,7 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:P11"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
@@ -59026,7 +59026,7 @@
     <col width="132" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="92" customWidth="1" min="11" max="11"/>
+    <col width="95" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -59458,7 +59458,7 @@
       </c>
       <c r="K9" s="107" t="inlineStr">
         <is>
-          <t>Aguardando a Juliana voltar de férias para perguntar. A data parece ter sido corrigida.</t>
+          <t>Perguntar para a Diana se é para deletar mesmo. A data de envio parece ter sido corrigida.</t>
         </is>
       </c>
     </row>
@@ -61237,7 +61237,7 @@
       </c>
       <c r="F49" s="107" t="inlineStr">
         <is>
-          <t>05/05/2025, 08/04/2025</t>
+          <t>08/04/2025, 05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="111" t="inlineStr">
@@ -65027,7 +65027,7 @@
       </c>
       <c r="F13" s="107" t="inlineStr">
         <is>
-          <t>10/07/2025, 09/06/2025</t>
+          <t>09/06/2025, 10/07/2025</t>
         </is>
       </c>
       <c r="G13" s="111" t="inlineStr">

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -3397,19 +3397,19 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O26:P26"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -3437,7 +3437,7 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
@@ -5583,8 +5583,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="107" t="n"/>
-      <c r="F57" s="107" t="n"/>
+      <c r="E57" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="107" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
       <c r="G57" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -61250,10 +61258,14 @@
           <t>Excluir ID4577</t>
         </is>
       </c>
-      <c r="I49" s="107" t="n"/>
+      <c r="I49" s="107" t="inlineStr">
+        <is>
+          <t>Deletar ID4577</t>
+        </is>
+      </c>
       <c r="J49" s="107" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K49" s="107" t="n"/>
@@ -65760,10 +65772,14 @@
           <t>excluir o ID 4841</t>
         </is>
       </c>
-      <c r="I29" s="107" t="n"/>
+      <c r="I29" s="107" t="inlineStr">
+        <is>
+          <t>Excluir 4841</t>
+        </is>
+      </c>
       <c r="J29" s="107" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K29" s="107" t="n"/>
@@ -69156,7 +69172,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H46" s="107" t="n"/>
+      <c r="H46" s="107" t="inlineStr">
+        <is>
+          <t>Técnico saiu</t>
+        </is>
+      </c>
       <c r="I46" s="107" t="n"/>
       <c r="J46" s="107" t="inlineStr">
         <is>
@@ -69196,7 +69216,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H47" s="107" t="n"/>
+      <c r="H47" s="107" t="inlineStr">
+        <is>
+          <t>Técnico saiu</t>
+        </is>
+      </c>
       <c r="I47" s="107" t="n"/>
       <c r="J47" s="107" t="inlineStr">
         <is>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -3385,8 +3385,8 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="R21:T21"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="K26:L26"/>
@@ -3404,12 +3404,12 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -3437,7 +3437,7 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:P11"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
@@ -4971,8 +4971,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="107" t="n"/>
-      <c r="F40" s="107" t="n"/>
+      <c r="E40" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="107" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
       <c r="G40" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5295,8 +5303,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="107" t="n"/>
-      <c r="F49" s="107" t="n"/>
+      <c r="E49" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="107" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
       <c r="G49" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -61245,7 +61261,7 @@
       </c>
       <c r="F49" s="107" t="inlineStr">
         <is>
-          <t>08/04/2025, 05/05/2025</t>
+          <t>05/05/2025, 08/04/2025</t>
         </is>
       </c>
       <c r="G49" s="111" t="inlineStr">
@@ -65039,12 +65055,12 @@
       </c>
       <c r="F13" s="107" t="inlineStr">
         <is>
-          <t>09/06/2025, 10/07/2025</t>
-        </is>
-      </c>
-      <c r="G13" s="111" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>10/07/2025, 09/06/2025</t>
+        </is>
+      </c>
+      <c r="G13" s="109" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H13" s="107" t="inlineStr">
@@ -65052,7 +65068,11 @@
           <t xml:space="preserve">Não preenchido completo </t>
         </is>
       </c>
-      <c r="I13" s="107" t="n"/>
+      <c r="I13" s="107" t="inlineStr">
+        <is>
+          <t>ID 4868</t>
+        </is>
+      </c>
       <c r="J13" s="107" t="inlineStr">
         <is>
           <t>Não</t>
@@ -67579,9 +67599,9 @@
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="G10" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G10" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H10" s="107" t="n"/>
@@ -67623,9 +67643,9 @@
           <t>08/07/2025</t>
         </is>
       </c>
-      <c r="G11" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G11" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="107" t="n"/>
@@ -67667,9 +67687,9 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G12" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G12" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H12" s="107" t="n"/>
@@ -67711,12 +67731,16 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G13" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="107" t="n"/>
+      <c r="G13" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H13" s="107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falta Atualizar dados ja falei com tecnica </t>
+        </is>
+      </c>
       <c r="I13" s="107" t="n"/>
       <c r="J13" s="107" t="inlineStr">
         <is>
@@ -67755,9 +67779,9 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G14" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G14" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H14" s="107" t="n"/>
@@ -67799,9 +67823,9 @@
           <t>14/07/2025</t>
         </is>
       </c>
-      <c r="G15" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G15" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H15" s="107" t="n"/>
@@ -67887,9 +67911,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G17" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G17" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H17" s="107" t="n"/>
@@ -68503,9 +68527,9 @@
           <t>02/07/2025</t>
         </is>
       </c>
-      <c r="G31" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G31" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H31" s="107" t="n"/>
@@ -69167,9 +69191,9 @@
         </is>
       </c>
       <c r="F46" s="107" t="n"/>
-      <c r="G46" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G46" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H46" s="107" t="inlineStr">
@@ -69211,9 +69235,9 @@
         </is>
       </c>
       <c r="F47" s="107" t="n"/>
-      <c r="G47" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G47" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H47" s="107" t="inlineStr">
@@ -69259,9 +69283,9 @@
           <t>01/07/2025</t>
         </is>
       </c>
-      <c r="G48" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G48" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H48" s="107" t="n"/>
@@ -69659,9 +69683,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G57" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="107" t="n"/>
@@ -69703,9 +69727,9 @@
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="G58" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G58" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H58" s="107" t="n"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -140,7 +140,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="58">
     <fill>
       <patternFill/>
     </fill>
@@ -479,12 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF6400"/>
         <bgColor rgb="00FF6400"/>
       </patternFill>
@@ -734,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,9 +1067,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="58" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2076,7 +2067,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="inlineStr">
         <is>
-          <t>UVR Sem Técnico</t>
+          <t>Sem Técnico</t>
         </is>
       </c>
       <c r="B7" s="20">
@@ -3429,8 +3420,8 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="R13:T13"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C12:I12"/>
@@ -3587,7 +3578,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="107" t="n"/>
+      <c r="E2" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="107" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -3623,7 +3618,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="107" t="n"/>
+      <c r="E3" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="107" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -3659,7 +3658,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="107" t="n"/>
+      <c r="E4" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="107" t="n"/>
       <c r="G4" s="109" t="inlineStr">
         <is>
@@ -3695,7 +3698,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="107" t="n"/>
+      <c r="E5" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="107" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -3731,7 +3738,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="107" t="n"/>
+      <c r="E6" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="107" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -3767,8 +3778,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="107" t="n"/>
-      <c r="F7" s="107" t="n"/>
+      <c r="E7" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="107" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
       <c r="G7" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3803,7 +3822,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="107" t="n"/>
+      <c r="E8" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="107" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -3839,7 +3862,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="107" t="n"/>
+      <c r="E9" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="107" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -3875,7 +3902,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="107" t="n"/>
+      <c r="E10" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F10" s="107" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -3911,7 +3942,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="107" t="n"/>
+      <c r="E11" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="107" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -3947,7 +3982,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="107" t="n"/>
+      <c r="E12" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="107" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -3983,7 +4022,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="107" t="n"/>
+      <c r="E13" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="107" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -4019,7 +4062,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="107" t="n"/>
+      <c r="E14" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="107" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -4055,7 +4102,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="107" t="n"/>
+      <c r="E15" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="107" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -4091,7 +4142,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="107" t="n"/>
+      <c r="E16" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="107" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -4127,7 +4182,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="107" t="n"/>
+      <c r="E17" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="107" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -4163,7 +4222,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="107" t="n"/>
+      <c r="E18" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="107" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -4199,7 +4262,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="107" t="n"/>
+      <c r="E19" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="107" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -4235,8 +4302,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="107" t="n"/>
-      <c r="F20" s="107" t="n"/>
+      <c r="E20" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="107" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
       <c r="G20" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4271,7 +4346,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="107" t="n"/>
+      <c r="E21" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="107" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -4307,7 +4386,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="107" t="n"/>
+      <c r="E22" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="107" t="n"/>
       <c r="G22" s="109" t="inlineStr">
         <is>
@@ -4343,7 +4426,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="107" t="n"/>
+      <c r="E23" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="107" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -4379,7 +4466,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="107" t="n"/>
+      <c r="E24" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="107" t="n"/>
       <c r="G24" s="109" t="inlineStr">
         <is>
@@ -4415,7 +4506,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="107" t="n"/>
+      <c r="E25" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="107" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -4451,7 +4546,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="107" t="n"/>
+      <c r="E26" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="107" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -4531,7 +4630,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="107" t="n"/>
+      <c r="E28" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="107" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -4567,7 +4670,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="107" t="n"/>
+      <c r="E29" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F29" s="107" t="n"/>
       <c r="G29" s="109" t="inlineStr">
         <is>
@@ -4603,7 +4710,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="107" t="n"/>
+      <c r="E30" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="107" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -4639,7 +4750,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="107" t="n"/>
+      <c r="E31" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="107" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -4675,8 +4790,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="107" t="n"/>
-      <c r="F32" s="107" t="n"/>
+      <c r="E32" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="107" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
       <c r="G32" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4711,7 +4834,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="107" t="n"/>
+      <c r="E33" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="107" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -4747,7 +4874,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="107" t="n"/>
+      <c r="E34" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F34" s="107" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -4783,8 +4914,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="107" t="n"/>
-      <c r="F35" s="107" t="n"/>
+      <c r="E35" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="107" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
       <c r="G35" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4819,7 +4958,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="107" t="n"/>
+      <c r="E36" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F36" s="107" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -4855,7 +4998,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="107" t="n"/>
+      <c r="E37" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="107" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -4891,7 +5038,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="107" t="n"/>
+      <c r="E38" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="107" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -4934,7 +5085,7 @@
       </c>
       <c r="F39" s="107" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>04/08/2025</t>
         </is>
       </c>
       <c r="G39" s="109" t="inlineStr">
@@ -5015,8 +5166,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="107" t="n"/>
-      <c r="F41" s="107" t="n"/>
+      <c r="E41" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="107" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
       <c r="G41" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5051,7 +5210,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="107" t="n"/>
+      <c r="E42" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="107" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -5087,7 +5250,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="107" t="n"/>
+      <c r="E43" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="107" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -5123,7 +5290,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="107" t="n"/>
+      <c r="E44" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="107" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -5159,7 +5330,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="107" t="n"/>
+      <c r="E45" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="107" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -5195,7 +5370,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="107" t="n"/>
+      <c r="E46" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F46" s="107" t="n"/>
       <c r="G46" s="109" t="inlineStr">
         <is>
@@ -5231,7 +5410,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="107" t="n"/>
+      <c r="E47" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="107" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -5267,7 +5450,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="107" t="n"/>
+      <c r="E48" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F48" s="107" t="n"/>
       <c r="G48" s="109" t="inlineStr">
         <is>
@@ -5347,7 +5534,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="107" t="n"/>
+      <c r="E50" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F50" s="107" t="n"/>
       <c r="G50" s="109" t="inlineStr">
         <is>
@@ -5383,8 +5574,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="107" t="n"/>
-      <c r="F51" s="107" t="n"/>
+      <c r="E51" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="107" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
       <c r="G51" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5419,7 +5618,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="107" t="n"/>
+      <c r="E52" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F52" s="107" t="n"/>
       <c r="G52" s="109" t="inlineStr">
         <is>
@@ -5455,7 +5658,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="107" t="n"/>
+      <c r="E53" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="107" t="n"/>
       <c r="G53" s="109" t="inlineStr">
         <is>
@@ -5491,7 +5698,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="107" t="n"/>
+      <c r="E54" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F54" s="107" t="n"/>
       <c r="G54" s="109" t="inlineStr">
         <is>
@@ -5527,7 +5738,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="107" t="n"/>
+      <c r="E55" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="107" t="n"/>
       <c r="G55" s="109" t="inlineStr">
         <is>
@@ -5563,7 +5778,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="107" t="n"/>
+      <c r="E56" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F56" s="107" t="n"/>
       <c r="G56" s="109" t="inlineStr">
         <is>
@@ -5643,7 +5862,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="107" t="n"/>
+      <c r="E58" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="107" t="n"/>
       <c r="G58" s="109" t="inlineStr">
         <is>
@@ -56064,9 +56287,9 @@
         </is>
       </c>
       <c r="D54" s="107" t="n"/>
-      <c r="E54" s="119" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E54" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="107" t="n"/>
@@ -61486,9 +61709,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="119" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E54" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="107" t="n"/>
@@ -64199,9 +64422,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="119" t="inlineStr">
-        <is>
-          <t>UVR Sem Técnico</t>
+      <c r="E54" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="107" t="n"/>
@@ -66884,9 +67107,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="118" t="inlineStr">
-        <is>
-          <t>Outras Ocorrências</t>
+      <c r="E54" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="107" t="n"/>
@@ -67155,7 +67378,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="105" customWidth="1" min="8" max="8"/>
@@ -67241,9 +67464,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E2" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F2" s="107" t="n"/>
@@ -67325,9 +67548,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E4" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F4" s="107" t="n"/>
@@ -67467,9 +67690,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G7" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G7" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H7" s="107" t="n"/>
@@ -67526,9 +67749,9 @@
       <c r="K8" s="107" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="115" t="inlineStr">
-        <is>
-          <t>Guarapuava</t>
+      <c r="A9" s="112" t="inlineStr">
+        <is>
+          <t>Maringá</t>
         </is>
       </c>
       <c r="B9" s="107" t="inlineStr">
@@ -67555,9 +67778,9 @@
           <t>06/07/2025</t>
         </is>
       </c>
-      <c r="G9" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G9" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H9" s="107" t="n"/>
@@ -67989,9 +68212,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E19" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="107" t="n"/>
@@ -68439,9 +68662,9 @@
           <t>04/07/2025</t>
         </is>
       </c>
-      <c r="G29" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G29" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H29" s="107" t="n"/>
@@ -68483,9 +68706,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G30" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G30" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H30" s="107" t="n"/>
@@ -68619,9 +68842,9 @@
           <t>08/07/2025</t>
         </is>
       </c>
-      <c r="G33" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G33" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H33" s="107" t="n"/>
@@ -68663,9 +68886,9 @@
           <t>11/07/2025</t>
         </is>
       </c>
-      <c r="G34" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G34" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H34" s="107" t="n"/>
@@ -68975,9 +69198,9 @@
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="G41" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G41" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H41" s="107" t="n"/>
@@ -69185,9 +69408,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E46" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F46" s="107" t="n"/>
@@ -69229,9 +69452,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E47" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F47" s="107" t="n"/>
@@ -69317,9 +69540,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E49" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F49" s="107" t="n"/>
@@ -69503,16 +69726,12 @@
           <t>14/07/2025</t>
         </is>
       </c>
-      <c r="G53" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H53" s="107" t="inlineStr">
-        <is>
-          <t>Solicitado ao técnico o detalhamento dos materiais pois só foi declarado metal (16/07/2025)</t>
-        </is>
-      </c>
+      <c r="G53" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H53" s="107" t="n"/>
       <c r="I53" s="107" t="n"/>
       <c r="J53" s="107" t="inlineStr">
         <is>
@@ -69541,9 +69760,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E54" s="108" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="107" t="n"/>
@@ -69639,9 +69858,9 @@
           <t>04/07/2025</t>
         </is>
       </c>
-      <c r="G56" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G56" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H56" s="107" t="n"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -3395,12 +3395,12 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -3420,15 +3420,15 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="R13:T13"/>
-    <mergeCell ref="K28:L28"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
@@ -3618,12 +3618,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="107" t="n"/>
+      <c r="E3" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G3" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3698,12 +3702,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="107" t="n"/>
+      <c r="E5" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G5" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3738,12 +3746,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="107" t="n"/>
+      <c r="E6" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G6" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3862,12 +3874,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F9" s="107" t="n"/>
+      <c r="E9" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G9" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3902,12 +3918,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F10" s="107" t="n"/>
+      <c r="E10" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G10" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4142,12 +4162,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="107" t="n"/>
+      <c r="E16" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G16" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4182,12 +4206,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F17" s="107" t="n"/>
+      <c r="E17" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G17" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4222,12 +4250,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F18" s="107" t="n"/>
+      <c r="E18" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G18" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4346,12 +4378,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="107" t="n"/>
+      <c r="E21" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G21" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4546,12 +4582,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="107" t="n"/>
+      <c r="E26" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G26" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4596,9 +4636,9 @@
           <t>17/07/2025</t>
         </is>
       </c>
-      <c r="G27" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="107" t="n"/>
@@ -4670,12 +4710,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F29" s="107" t="n"/>
+      <c r="E29" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G29" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4834,12 +4878,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="107" t="n"/>
+      <c r="E33" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G33" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4874,12 +4922,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="107" t="n"/>
+      <c r="E34" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G34" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4958,12 +5010,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F36" s="107" t="n"/>
+      <c r="E36" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G36" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4998,12 +5054,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="107" t="n"/>
+      <c r="E37" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G37" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5210,12 +5270,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="107" t="n"/>
+      <c r="E42" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G42" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5290,12 +5354,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="107" t="n"/>
+      <c r="E44" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G44" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5450,12 +5518,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="107" t="n"/>
+      <c r="E48" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G48" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5534,12 +5606,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F50" s="107" t="n"/>
+      <c r="E50" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G50" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5584,9 +5660,9 @@
           <t>01/08/2025</t>
         </is>
       </c>
-      <c r="G51" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G51" s="111" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H51" s="107" t="n"/>
@@ -5618,12 +5694,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="107" t="n"/>
+      <c r="E52" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G52" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5738,12 +5818,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="107" t="n"/>
+      <c r="E55" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G55" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5778,12 +5862,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="107" t="n"/>
+      <c r="E56" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="107" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G56" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5862,12 +5950,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="107" t="n"/>
+      <c r="E58" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G58" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7591,8 +7683,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="107" t="n"/>
-      <c r="F45" s="107" t="n"/>
+      <c r="E45" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="107" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
       <c r="G45" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -69540,12 +69640,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="108" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F49" s="107" t="n"/>
+      <c r="E49" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="107" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G49" s="109" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -887,7 +887,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -908,7 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2257,7 +2257,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="32" t="inlineStr">
         <is>
-          <t>06.25</t>
+          <t>07.25</t>
         </is>
       </c>
       <c r="B12" s="26" t="n"/>
@@ -2292,7 +2292,7 @@
       <c r="S12" s="29" t="n"/>
       <c r="T12" s="35" t="inlineStr">
         <is>
-          <t>Francisco Beltrão</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="U12" s="24" t="n"/>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="S28" s="63">
-        <f>VLOOKUP($T$12,$C$20:$P$25,13,FALSE)</f>
+        <f>VLOOKUP($T$12,$C$22:$P$29,13,FALSE)</f>
         <v/>
       </c>
       <c r="T28" s="29" t="n"/>
@@ -3501,10 +3501,10 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="54" customWidth="1" min="8" max="8"/>
+    <col width="101" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -3587,9 +3587,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E2" s="108" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F2" s="107" t="n"/>
@@ -3637,9 +3637,9 @@
           <t>05/08/2025</t>
         </is>
       </c>
-      <c r="G3" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G3" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H3" s="107" t="n"/>
@@ -3721,9 +3721,9 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G5" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G5" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H5" s="107" t="n"/>
@@ -3809,9 +3809,9 @@
           <t>04/08/2025</t>
         </is>
       </c>
-      <c r="G7" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G7" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H7" s="107" t="n"/>
@@ -3853,9 +3853,9 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G8" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G8" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H8" s="107" t="n"/>
@@ -3985,9 +3985,9 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G11" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G11" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="107" t="n"/>
@@ -4029,9 +4029,9 @@
           <t>11/08/2025</t>
         </is>
       </c>
-      <c r="G12" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G12" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H12" s="107" t="n"/>
@@ -4063,22 +4063,26 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="108" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E13" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F13" s="107" t="inlineStr">
         <is>
-          <t>11/08/2025, 11/08/2025</t>
-        </is>
-      </c>
-      <c r="G13" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H13" s="107" t="n"/>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="G13" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H13" s="107" t="inlineStr">
+        <is>
+          <t>falta dados</t>
+        </is>
+      </c>
       <c r="I13" s="107" t="inlineStr">
         <is>
           <t>excluir o ID 5157</t>
@@ -4086,10 +4090,14 @@
       </c>
       <c r="J13" s="107" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K13" s="107" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K13" s="107" t="inlineStr">
+        <is>
+          <t>Deletado o 5157</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="115" t="inlineStr">
@@ -4121,12 +4129,16 @@
           <t>11/08/2025</t>
         </is>
       </c>
-      <c r="G14" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H14" s="107" t="n"/>
+      <c r="G14" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H14" s="107" t="inlineStr">
+        <is>
+          <t>falta dados</t>
+        </is>
+      </c>
       <c r="I14" s="107" t="n"/>
       <c r="J14" s="107" t="inlineStr">
         <is>
@@ -4165,9 +4177,9 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G15" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G15" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H15" s="107" t="n"/>
@@ -4381,9 +4393,9 @@
           <t>04/08/2025</t>
         </is>
       </c>
-      <c r="G20" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G20" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H20" s="107" t="n"/>
@@ -4459,12 +4471,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="107" t="n"/>
+      <c r="E22" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="107" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
       <c r="G22" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4499,12 +4515,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="107" t="n"/>
+      <c r="E23" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="107" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
       <c r="G23" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4539,12 +4559,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="107" t="n"/>
+      <c r="E24" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="107" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
       <c r="G24" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4717,9 +4741,9 @@
           <t>11/08/2025</t>
         </is>
       </c>
-      <c r="G28" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G28" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H28" s="107" t="n"/>
@@ -4761,9 +4785,9 @@
           <t>05/08/2025</t>
         </is>
       </c>
-      <c r="G29" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G29" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H29" s="107" t="n"/>
@@ -4845,9 +4869,9 @@
           <t>11/08/2025</t>
         </is>
       </c>
-      <c r="G31" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G31" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H31" s="107" t="n"/>
@@ -4933,9 +4957,9 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G33" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G33" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H33" s="107" t="n"/>
@@ -4977,9 +5001,9 @@
           <t>07/08/2025</t>
         </is>
       </c>
-      <c r="G34" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G34" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H34" s="107" t="n"/>
@@ -5241,9 +5265,9 @@
           <t>25/07/2025</t>
         </is>
       </c>
-      <c r="G40" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G40" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H40" s="107" t="n"/>
@@ -5285,9 +5309,9 @@
           <t>31/07/2025</t>
         </is>
       </c>
-      <c r="G41" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G41" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H41" s="107" t="n"/>
@@ -5461,9 +5485,9 @@
           <t>07/08/2025</t>
         </is>
       </c>
-      <c r="G45" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G45" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H45" s="107" t="n"/>
@@ -5552,7 +5576,7 @@
       </c>
       <c r="H47" s="107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sem técnico </t>
+          <t>Sem técnico</t>
         </is>
       </c>
       <c r="I47" s="107" t="n"/>
@@ -5769,9 +5793,9 @@
           <t>05/08/2025</t>
         </is>
       </c>
-      <c r="G52" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="107" t="n"/>
@@ -5820,16 +5844,24 @@
       </c>
       <c r="H53" s="107" t="inlineStr">
         <is>
-          <t>As despesas estão estranhas, pedi para verificar</t>
-        </is>
-      </c>
-      <c r="I53" s="107" t="n"/>
+          <t>Excluir o formulário ID5185/ O formulário correto está sendo editado por preenchimento incorreto</t>
+        </is>
+      </c>
+      <c r="I53" s="107" t="inlineStr">
+        <is>
+          <t>ID5185</t>
+        </is>
+      </c>
       <c r="J53" s="107" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K53" s="107" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K53" s="107" t="inlineStr">
+        <is>
+          <t>Deletado o 5185</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="117" t="inlineStr">
@@ -5901,9 +5933,9 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G55" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G55" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H55" s="107" t="n"/>
@@ -5945,9 +5977,9 @@
           <t>05/08/2025</t>
         </is>
       </c>
-      <c r="G56" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G56" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H56" s="107" t="n"/>
@@ -7108,8 +7140,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="107" t="n"/>
-      <c r="F27" s="107" t="n"/>
+      <c r="E27" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="107" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
       <c r="G27" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7908,8 +7948,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="107" t="n"/>
-      <c r="F49" s="107" t="n"/>
+      <c r="E49" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="107" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
       <c r="G49" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7944,8 +7992,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="107" t="n"/>
-      <c r="F50" s="107" t="n"/>
+      <c r="E50" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="107" t="inlineStr">
+        <is>
+          <t>26/08/2025</t>
+        </is>
+      </c>
       <c r="G50" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17300,6 +17356,7 @@
     <col width="20.28515625" customWidth="1" min="6" max="6"/>
     <col width="21.28515625" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15.7109375" customWidth="1" min="9" max="9"/>
     <col width="16.28515625" customWidth="1" min="10" max="10"/>
     <col width="16.5703125" customWidth="1" min="11" max="11"/>
     <col width="17.28515625" customWidth="1" min="12" max="12"/>
@@ -30443,49 +30500,15 @@
 )</f>
         <v/>
       </c>
-      <c r="I53" s="71">
-        <f t="array" ref="I53">IF(
-    VLOOKUP(
-        $A53,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;I$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;I$1&amp;"'!B2:B1000")=$B53) * (INDIRECT("'"&amp;I$1&amp;"'!C2:C1000")=$C53)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A53,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;I$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;I$1&amp;"'!B2:B1000")=$B53) * (INDIRECT("'"&amp;I$1&amp;"'!C2:C1000")=$C53)
-        ),
-        5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-      <c r="J53" s="71">
-        <f t="array" ref="J53">IF(
-    VLOOKUP(
-        $A53,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;J$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;J$1&amp;"'!B2:B1000")=$B53) * (INDIRECT("'"&amp;J$1&amp;"'!C2:C1000")=$C53)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A53,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;J$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;J$1&amp;"'!B2:B1000")=$B53) * (INDIRECT("'"&amp;J$1&amp;"'!C2:C1000")=$C53)
-        ),
-        5,
-        FALSE
-    )
-)</f>
-        <v/>
+      <c r="I53" s="71" t="inlineStr">
+        <is>
+          <t>sem tecnico</t>
+        </is>
+      </c>
+      <c r="J53" s="71" t="inlineStr">
+        <is>
+          <t>sem técnico</t>
+        </is>
       </c>
       <c r="K53" s="71">
         <f t="array" ref="K53">IF(
@@ -31374,27 +31397,10 @@
 )</f>
         <v/>
       </c>
-      <c r="J56" s="71">
-        <f t="array" ref="J56">IF(
-    VLOOKUP(
-        $A56,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;J$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;J$1&amp;"'!B2:B1000")=$B56) * (INDIRECT("'"&amp;J$1&amp;"'!C2:C1000")=$C56)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A56,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;J$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;J$1&amp;"'!B2:B1000")=$B56) * (INDIRECT("'"&amp;J$1&amp;"'!C2:C1000")=$C56)
-        ),
-        5,
-        FALSE
-    )
-)</f>
-        <v/>
+      <c r="J56" s="71" t="inlineStr">
+        <is>
+          <t>sem técnico</t>
+        </is>
       </c>
       <c r="K56" s="71">
         <f t="array" ref="K56">IF(
@@ -54186,7 +54192,7 @@
       </c>
       <c r="D4" s="107" t="inlineStr">
         <is>
-          <t>Amanda Tayara Ribeiro da Silva</t>
+          <t>Claudete Rodrigues Scarpelini</t>
         </is>
       </c>
       <c r="E4" s="110" t="inlineStr">
@@ -55250,9 +55256,9 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G27" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="107" t="inlineStr">
@@ -55376,7 +55382,7 @@
       </c>
       <c r="D30" s="107" t="inlineStr">
         <is>
-          <t>Eusebio Lima Deltrejo</t>
+          <t>Fernando Henrique Ferreira</t>
         </is>
       </c>
       <c r="E30" s="110" t="inlineStr">
@@ -55646,7 +55652,7 @@
       </c>
       <c r="D36" s="107" t="inlineStr">
         <is>
-          <t>Mariangela Lurdes de Borba</t>
+          <t>Vinicius Patriota dos Santos</t>
         </is>
       </c>
       <c r="E36" s="110" t="inlineStr">
@@ -56096,7 +56102,7 @@
       </c>
       <c r="D46" s="107" t="inlineStr">
         <is>
-          <t>João Henrique Assunção de Sousa</t>
+          <t>Maysa Fernanda Back</t>
         </is>
       </c>
       <c r="E46" s="110" t="inlineStr">
@@ -56141,7 +56147,7 @@
       </c>
       <c r="D47" s="107" t="inlineStr">
         <is>
-          <t>João Henrique Assunção de Sousa</t>
+          <t>Maysa Fernanda Back</t>
         </is>
       </c>
       <c r="E47" s="108" t="inlineStr">
@@ -57954,9 +57960,9 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G27" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="107" t="inlineStr">
@@ -59440,12 +59446,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="132" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="95" customWidth="1" min="11" max="11"/>
+    <col width="49" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -59865,21 +59871,13 @@
         </is>
       </c>
       <c r="H9" s="107" t="n"/>
-      <c r="I9" s="107" t="inlineStr">
-        <is>
-          <t>ID4513</t>
-        </is>
-      </c>
+      <c r="I9" s="107" t="n"/>
       <c r="J9" s="107" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K9" s="107" t="inlineStr">
-        <is>
-          <t>Perguntar para a Diana se é para deletar mesmo. A data de envio parece ter sido corrigida.</t>
-        </is>
-      </c>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K9" s="107" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="115" t="inlineStr">
@@ -61649,14 +61647,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="108" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E49" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F49" s="107" t="inlineStr">
         <is>
-          <t>05/05/2025, 08/04/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="G49" s="109" t="inlineStr">
@@ -61676,10 +61674,14 @@
       </c>
       <c r="J49" s="107" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K49" s="107" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K49" s="107" t="inlineStr">
+        <is>
+          <t>Deletado ID4577</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="117" t="inlineStr">
@@ -64870,12 +64872,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="46" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="44" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -65443,14 +65445,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="108" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E13" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F13" s="107" t="inlineStr">
         <is>
-          <t>10/07/2025, 09/06/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="G13" s="116" t="inlineStr">
@@ -65470,10 +65472,14 @@
       </c>
       <c r="J13" s="107" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K13" s="107" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K13" s="107" t="inlineStr">
+        <is>
+          <t>Deletado o 4869 (4868 estava incorreto)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="115" t="inlineStr">
@@ -66167,14 +66173,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="108" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E29" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F29" s="107" t="inlineStr">
         <is>
-          <t>05/06/2025, 05/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="G29" s="109" t="inlineStr">
@@ -66194,10 +66200,14 @@
       </c>
       <c r="J29" s="107" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K29" s="107" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K29" s="107" t="inlineStr">
+        <is>
+          <t>Deletado o 4841</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="111" t="inlineStr">
@@ -67636,9 +67646,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="119" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E2" s="108" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F2" s="107" t="n"/>
@@ -67686,9 +67696,9 @@
           <t>08/07/2025</t>
         </is>
       </c>
-      <c r="G3" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G3" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H3" s="107" t="n"/>
@@ -67770,9 +67780,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G5" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G5" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H5" s="107" t="n"/>
@@ -68350,9 +68360,9 @@
           <t>04/07/2025</t>
         </is>
       </c>
-      <c r="G18" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G18" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H18" s="107" t="n"/>
@@ -68438,9 +68448,9 @@
           <t>04/07/2025</t>
         </is>
       </c>
-      <c r="G20" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G20" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H20" s="107" t="n"/>
@@ -69326,9 +69336,9 @@
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="G40" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G40" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H40" s="107" t="n"/>
@@ -69858,9 +69868,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G52" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="107" t="n"/>
@@ -69990,9 +70000,9 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G55" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G55" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H55" s="107" t="n"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -3429,8 +3429,8 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="R13:T13"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C12:I12"/>
@@ -3504,7 +3504,7 @@
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="101" customWidth="1" min="8" max="8"/>
+    <col width="108" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -3671,9 +3671,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E4" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F4" s="107" t="n"/>
@@ -3765,9 +3765,9 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G6" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G6" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H6" s="107" t="n"/>
@@ -4221,9 +4221,9 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G16" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G16" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H16" s="107" t="n"/>
@@ -4343,9 +4343,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E19" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="107" t="n"/>
@@ -4437,9 +4437,9 @@
           <t>05/08/2025</t>
         </is>
       </c>
-      <c r="G21" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G21" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H21" s="107" t="n"/>
@@ -4481,9 +4481,9 @@
           <t>13/08/2025</t>
         </is>
       </c>
-      <c r="G22" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G22" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="107" t="n"/>
@@ -4525,9 +4525,9 @@
           <t>13/08/2025</t>
         </is>
       </c>
-      <c r="G23" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G23" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H23" s="107" t="n"/>
@@ -4569,9 +4569,9 @@
           <t>12/08/2025</t>
         </is>
       </c>
-      <c r="G24" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G24" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H24" s="107" t="n"/>
@@ -4603,15 +4603,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="107" t="n"/>
-      <c r="G25" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E25" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="107" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="G25" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H25" s="107" t="n"/>
@@ -4819,12 +4823,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F30" s="107" t="n"/>
+      <c r="E30" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="107" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
       <c r="G30" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4913,9 +4921,9 @@
           <t>04/08/2025</t>
         </is>
       </c>
-      <c r="G32" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G32" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H32" s="107" t="n"/>
@@ -5045,9 +5053,9 @@
           <t>01/08/2025</t>
         </is>
       </c>
-      <c r="G35" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G35" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H35" s="107" t="n"/>
@@ -5167,22 +5175,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="107" t="n"/>
+      <c r="E38" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="107" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
       <c r="G38" s="116" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H38" s="107" t="inlineStr">
-        <is>
-          <t>Técnico teve um problema de saúde e está afastado</t>
-        </is>
-      </c>
+      <c r="H38" s="107" t="n"/>
       <c r="I38" s="107" t="n"/>
       <c r="J38" s="107" t="inlineStr">
         <is>
@@ -5221,9 +5229,9 @@
           <t>04/08/2025</t>
         </is>
       </c>
-      <c r="G39" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G39" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H39" s="107" t="n"/>
@@ -5324,9 +5332,9 @@
       <c r="K41" s="107" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="117" t="inlineStr">
-        <is>
-          <t>Laranjeiras do Sul</t>
+      <c r="A42" s="112" t="inlineStr">
+        <is>
+          <t>Francisco Beltrão</t>
         </is>
       </c>
       <c r="B42" s="107" t="inlineStr">
@@ -5353,9 +5361,9 @@
           <t>05/08/2025</t>
         </is>
       </c>
-      <c r="G42" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G42" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H42" s="107" t="n"/>
@@ -5397,9 +5405,9 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G43" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="107" t="n"/>
@@ -5441,9 +5449,9 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G44" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G44" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H44" s="107" t="n"/>
@@ -5519,9 +5527,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E46" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F46" s="107" t="n"/>
@@ -5563,9 +5571,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E47" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F47" s="107" t="n"/>
@@ -5661,12 +5669,16 @@
           <t>28/07/2025</t>
         </is>
       </c>
-      <c r="G49" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H49" s="107" t="n"/>
+      <c r="G49" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H49" s="107" t="inlineStr">
+        <is>
+          <t>Solicitei a revisão no dia</t>
+        </is>
+      </c>
       <c r="I49" s="107" t="n"/>
       <c r="J49" s="107" t="inlineStr">
         <is>
@@ -5705,9 +5717,9 @@
           <t>07/08/2025</t>
         </is>
       </c>
-      <c r="G50" s="116" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G50" s="109" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H50" s="107" t="n"/>
@@ -5844,7 +5856,7 @@
       </c>
       <c r="H53" s="107" t="inlineStr">
         <is>
-          <t>Excluir o formulário ID5185/ O formulário correto está sendo editado por preenchimento incorreto</t>
+          <t>O técnico preencheu tudo como "Outros materiais" já solicitei a correção (solicitei revisão 28/08/2025)</t>
         </is>
       </c>
       <c r="I53" s="107" t="inlineStr">
@@ -5883,9 +5895,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="120" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E54" s="119" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F54" s="107" t="n"/>
@@ -6240,7 +6252,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="107" t="n"/>
+      <c r="E2" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="107" t="n"/>
       <c r="G2" s="116" t="inlineStr">
         <is>
@@ -6276,8 +6292,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="107" t="n"/>
-      <c r="F3" s="107" t="n"/>
+      <c r="E3" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="107" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
       <c r="G3" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6312,7 +6336,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="107" t="n"/>
+      <c r="E4" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="107" t="n"/>
       <c r="G4" s="116" t="inlineStr">
         <is>
@@ -6348,7 +6376,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="107" t="n"/>
+      <c r="E5" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="107" t="n"/>
       <c r="G5" s="116" t="inlineStr">
         <is>
@@ -6384,7 +6416,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="107" t="n"/>
+      <c r="E6" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="107" t="n"/>
       <c r="G6" s="116" t="inlineStr">
         <is>
@@ -6420,7 +6456,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="107" t="n"/>
+      <c r="E7" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F7" s="107" t="n"/>
       <c r="G7" s="116" t="inlineStr">
         <is>
@@ -6456,7 +6496,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="107" t="n"/>
+      <c r="E8" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="107" t="n"/>
       <c r="G8" s="116" t="inlineStr">
         <is>
@@ -6492,7 +6536,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="107" t="n"/>
+      <c r="E9" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="107" t="n"/>
       <c r="G9" s="116" t="inlineStr">
         <is>
@@ -6528,7 +6576,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="107" t="n"/>
+      <c r="E10" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F10" s="107" t="n"/>
       <c r="G10" s="116" t="inlineStr">
         <is>
@@ -6564,7 +6616,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="107" t="n"/>
+      <c r="E11" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="107" t="n"/>
       <c r="G11" s="116" t="inlineStr">
         <is>
@@ -6600,7 +6656,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="107" t="n"/>
+      <c r="E12" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="107" t="n"/>
       <c r="G12" s="116" t="inlineStr">
         <is>
@@ -6636,7 +6696,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="107" t="n"/>
+      <c r="E13" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="107" t="n"/>
       <c r="G13" s="116" t="inlineStr">
         <is>
@@ -6672,7 +6736,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="107" t="n"/>
+      <c r="E14" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="107" t="n"/>
       <c r="G14" s="116" t="inlineStr">
         <is>
@@ -6708,7 +6776,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="107" t="n"/>
+      <c r="E15" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="107" t="n"/>
       <c r="G15" s="116" t="inlineStr">
         <is>
@@ -6744,7 +6816,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="107" t="n"/>
+      <c r="E16" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="107" t="n"/>
       <c r="G16" s="116" t="inlineStr">
         <is>
@@ -6780,7 +6856,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="107" t="n"/>
+      <c r="E17" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="107" t="n"/>
       <c r="G17" s="116" t="inlineStr">
         <is>
@@ -6816,7 +6896,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="107" t="n"/>
+      <c r="E18" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="107" t="n"/>
       <c r="G18" s="116" t="inlineStr">
         <is>
@@ -6852,7 +6936,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="107" t="n"/>
+      <c r="E19" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="107" t="n"/>
       <c r="G19" s="116" t="inlineStr">
         <is>
@@ -6888,8 +6976,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="107" t="n"/>
-      <c r="F20" s="107" t="n"/>
+      <c r="E20" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="107" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
       <c r="G20" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6924,7 +7020,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="107" t="n"/>
+      <c r="E21" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="107" t="n"/>
       <c r="G21" s="116" t="inlineStr">
         <is>
@@ -6960,7 +7060,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="107" t="n"/>
+      <c r="E22" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="107" t="n"/>
       <c r="G22" s="116" t="inlineStr">
         <is>
@@ -6996,7 +7100,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="107" t="n"/>
+      <c r="E23" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="107" t="n"/>
       <c r="G23" s="116" t="inlineStr">
         <is>
@@ -7032,7 +7140,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="107" t="n"/>
+      <c r="E24" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="107" t="n"/>
       <c r="G24" s="116" t="inlineStr">
         <is>
@@ -7068,7 +7180,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="107" t="n"/>
+      <c r="E25" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="107" t="n"/>
       <c r="G25" s="116" t="inlineStr">
         <is>
@@ -7104,7 +7220,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="107" t="n"/>
+      <c r="E26" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="107" t="n"/>
       <c r="G26" s="116" t="inlineStr">
         <is>
@@ -7184,7 +7304,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="107" t="n"/>
+      <c r="E28" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="107" t="n"/>
       <c r="G28" s="116" t="inlineStr">
         <is>
@@ -7220,7 +7344,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="107" t="n"/>
+      <c r="E29" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F29" s="107" t="n"/>
       <c r="G29" s="116" t="inlineStr">
         <is>
@@ -7256,7 +7384,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="107" t="n"/>
+      <c r="E30" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="107" t="n"/>
       <c r="G30" s="116" t="inlineStr">
         <is>
@@ -7292,7 +7424,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="107" t="n"/>
+      <c r="E31" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="107" t="n"/>
       <c r="G31" s="116" t="inlineStr">
         <is>
@@ -7328,7 +7464,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="107" t="n"/>
+      <c r="E32" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="107" t="n"/>
       <c r="G32" s="116" t="inlineStr">
         <is>
@@ -7364,7 +7504,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="107" t="n"/>
+      <c r="E33" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="107" t="n"/>
       <c r="G33" s="116" t="inlineStr">
         <is>
@@ -7400,7 +7544,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="107" t="n"/>
+      <c r="E34" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F34" s="107" t="n"/>
       <c r="G34" s="116" t="inlineStr">
         <is>
@@ -7436,7 +7584,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="107" t="n"/>
+      <c r="E35" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F35" s="107" t="n"/>
       <c r="G35" s="116" t="inlineStr">
         <is>
@@ -7472,7 +7624,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="107" t="n"/>
+      <c r="E36" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F36" s="107" t="n"/>
       <c r="G36" s="116" t="inlineStr">
         <is>
@@ -7508,7 +7664,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="107" t="n"/>
+      <c r="E37" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="107" t="n"/>
       <c r="G37" s="116" t="inlineStr">
         <is>
@@ -7544,7 +7704,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="107" t="n"/>
+      <c r="E38" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="107" t="n"/>
       <c r="G38" s="116" t="inlineStr">
         <is>
@@ -7580,7 +7744,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="107" t="n"/>
+      <c r="E39" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="107" t="n"/>
       <c r="G39" s="116" t="inlineStr">
         <is>
@@ -7616,7 +7784,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="107" t="n"/>
+      <c r="E40" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="107" t="n"/>
       <c r="G40" s="116" t="inlineStr">
         <is>
@@ -7652,8 +7824,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="107" t="n"/>
-      <c r="F41" s="107" t="n"/>
+      <c r="E41" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="107" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
       <c r="G41" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7688,7 +7868,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="107" t="n"/>
+      <c r="E42" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="107" t="n"/>
       <c r="G42" s="116" t="inlineStr">
         <is>
@@ -7724,7 +7908,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="107" t="n"/>
+      <c r="E43" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="107" t="n"/>
       <c r="G43" s="116" t="inlineStr">
         <is>
@@ -7760,7 +7948,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="107" t="n"/>
+      <c r="E44" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="107" t="n"/>
       <c r="G44" s="116" t="inlineStr">
         <is>
@@ -7803,7 +7995,7 @@
       </c>
       <c r="F45" s="107" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>01/09/2025</t>
         </is>
       </c>
       <c r="G45" s="116" t="inlineStr">
@@ -7840,7 +8032,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="107" t="n"/>
+      <c r="E46" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F46" s="107" t="n"/>
       <c r="G46" s="116" t="inlineStr">
         <is>
@@ -7876,7 +8072,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="107" t="n"/>
+      <c r="E47" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="107" t="n"/>
       <c r="G47" s="116" t="inlineStr">
         <is>
@@ -7912,8 +8112,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="107" t="n"/>
-      <c r="F48" s="107" t="n"/>
+      <c r="E48" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="107" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
       <c r="G48" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8036,7 +8244,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="107" t="n"/>
+      <c r="E51" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="107" t="n"/>
       <c r="G51" s="116" t="inlineStr">
         <is>
@@ -8072,8 +8284,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="107" t="n"/>
-      <c r="F52" s="107" t="n"/>
+      <c r="E52" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="107" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
       <c r="G52" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8108,7 +8328,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="107" t="n"/>
+      <c r="E53" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="107" t="n"/>
       <c r="G53" s="116" t="inlineStr">
         <is>
@@ -8144,7 +8368,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B54&amp;C54, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="107" t="n"/>
+      <c r="E54" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F54" s="107" t="n"/>
       <c r="G54" s="116" t="inlineStr">
         <is>
@@ -8180,7 +8408,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="107" t="n"/>
+      <c r="E55" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="107" t="n"/>
       <c r="G55" s="116" t="inlineStr">
         <is>
@@ -8216,7 +8448,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="107" t="n"/>
+      <c r="E56" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F56" s="107" t="n"/>
       <c r="G56" s="116" t="inlineStr">
         <is>
@@ -8252,8 +8488,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="107" t="n"/>
-      <c r="F57" s="107" t="n"/>
+      <c r="E57" s="110" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="107" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
       <c r="G57" s="116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8288,7 +8532,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="107" t="n"/>
+      <c r="E58" s="120" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="107" t="n"/>
       <c r="G58" s="116" t="inlineStr">
         <is>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -4003,8 +4003,8 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C33:D33"/>
@@ -6898,9 +6898,9 @@
           <t>01/09/2025</t>
         </is>
       </c>
-      <c r="G3" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G3" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H3" s="119" t="n"/>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F4" s="119" t="inlineStr">
         <is>
-          <t>09/09/2025</t>
+          <t>26/09/2025</t>
         </is>
       </c>
       <c r="G4" s="121" t="inlineStr">
@@ -6986,9 +6986,9 @@
           <t>09/09/2025</t>
         </is>
       </c>
-      <c r="G5" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G5" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H5" s="119" t="n"/>
@@ -7558,9 +7558,9 @@
           <t>10/09/2025</t>
         </is>
       </c>
-      <c r="G18" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G18" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H18" s="119" t="n"/>
@@ -7646,9 +7646,9 @@
           <t>29/08/2025</t>
         </is>
       </c>
-      <c r="G20" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G20" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H20" s="119" t="n"/>
@@ -8530,9 +8530,9 @@
           <t>08/09/2025</t>
         </is>
       </c>
-      <c r="G40" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G40" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H40" s="119" t="n"/>
@@ -9058,9 +9058,9 @@
           <t>01/09/2025</t>
         </is>
       </c>
-      <c r="G52" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="119" t="n"/>
@@ -9190,9 +9190,9 @@
           <t>08/09/2025</t>
         </is>
       </c>
-      <c r="G55" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G55" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H55" s="119" t="n"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -166,7 +166,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="68">
+  <fills count="75">
     <fill>
       <patternFill/>
     </fill>
@@ -487,6 +487,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0066FF66"/>
         <bgColor rgb="0066FF66"/>
       </patternFill>
@@ -495,6 +507,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="009B59B6"/>
         <bgColor rgb="009B59B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -529,6 +547,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
       </patternFill>
@@ -537,6 +561,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFD3AC"/>
         <bgColor rgb="00FFD3AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -559,8 +589,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -1145,28 +1187,19 @@
     <xf numFmtId="0" fontId="20" fillId="53" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="55" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="63" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="54" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="64" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="68" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="56" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="58" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="69" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="59" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1181,13 +1214,22 @@
     <xf numFmtId="0" fontId="16" fillId="62" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="65" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="63" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="66" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="65" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="67" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="66" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="70" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="72" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="74" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7152,9 +7194,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E9" s="131" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F9" s="119" t="n"/>
@@ -7856,9 +7898,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E25" s="131" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F25" s="119" t="n"/>
@@ -9497,7 +9539,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="119" t="n"/>
+      <c r="E2" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="119" t="n"/>
       <c r="G2" s="128" t="inlineStr">
         <is>
@@ -9533,7 +9579,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="119" t="n"/>
+      <c r="E3" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="119" t="n"/>
       <c r="G3" s="128" t="inlineStr">
         <is>
@@ -9569,7 +9619,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="119" t="n"/>
+      <c r="E4" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="119" t="n"/>
       <c r="G4" s="128" t="inlineStr">
         <is>
@@ -9605,7 +9659,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="119" t="n"/>
+      <c r="E5" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="119" t="n"/>
       <c r="G5" s="128" t="inlineStr">
         <is>
@@ -9641,7 +9699,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="119" t="n"/>
+      <c r="E6" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="119" t="n"/>
       <c r="G6" s="128" t="inlineStr">
         <is>
@@ -9677,7 +9739,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="119" t="n"/>
+      <c r="E7" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F7" s="119" t="n"/>
       <c r="G7" s="128" t="inlineStr">
         <is>
@@ -9713,7 +9779,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="119" t="n"/>
+      <c r="E8" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="119" t="n"/>
       <c r="G8" s="128" t="inlineStr">
         <is>
@@ -9749,7 +9819,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="119" t="n"/>
+      <c r="E9" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="119" t="n"/>
       <c r="G9" s="128" t="inlineStr">
         <is>
@@ -9785,7 +9859,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="119" t="n"/>
+      <c r="E10" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F10" s="119" t="n"/>
       <c r="G10" s="128" t="inlineStr">
         <is>
@@ -9821,7 +9899,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="119" t="n"/>
+      <c r="E11" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="119" t="n"/>
       <c r="G11" s="128" t="inlineStr">
         <is>
@@ -9857,7 +9939,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="119" t="n"/>
+      <c r="E12" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="119" t="n"/>
       <c r="G12" s="128" t="inlineStr">
         <is>
@@ -9893,7 +9979,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="119" t="n"/>
+      <c r="E13" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="119" t="n"/>
       <c r="G13" s="128" t="inlineStr">
         <is>
@@ -9929,7 +10019,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="119" t="n"/>
+      <c r="E14" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="119" t="n"/>
       <c r="G14" s="128" t="inlineStr">
         <is>
@@ -9965,7 +10059,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="119" t="n"/>
+      <c r="E15" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="119" t="n"/>
       <c r="G15" s="128" t="inlineStr">
         <is>
@@ -10001,7 +10099,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="119" t="n"/>
+      <c r="E16" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="119" t="n"/>
       <c r="G16" s="128" t="inlineStr">
         <is>
@@ -10037,7 +10139,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="119" t="n"/>
+      <c r="E17" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="119" t="n"/>
       <c r="G17" s="128" t="inlineStr">
         <is>
@@ -10073,7 +10179,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="119" t="n"/>
+      <c r="E18" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="119" t="n"/>
       <c r="G18" s="128" t="inlineStr">
         <is>
@@ -10109,7 +10219,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="119" t="n"/>
+      <c r="E19" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="119" t="n"/>
       <c r="G19" s="128" t="inlineStr">
         <is>
@@ -10145,7 +10259,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="119" t="n"/>
+      <c r="E20" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F20" s="119" t="n"/>
       <c r="G20" s="128" t="inlineStr">
         <is>
@@ -10181,7 +10299,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="119" t="n"/>
+      <c r="E21" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="119" t="n"/>
       <c r="G21" s="128" t="inlineStr">
         <is>
@@ -10217,7 +10339,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="119" t="n"/>
+      <c r="E22" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="119" t="n"/>
       <c r="G22" s="128" t="inlineStr">
         <is>
@@ -10253,7 +10379,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="119" t="n"/>
+      <c r="E23" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="119" t="n"/>
       <c r="G23" s="128" t="inlineStr">
         <is>
@@ -10289,7 +10419,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="119" t="n"/>
+      <c r="E24" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="119" t="n"/>
       <c r="G24" s="128" t="inlineStr">
         <is>
@@ -10325,7 +10459,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="119" t="n"/>
+      <c r="E25" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="119" t="n"/>
       <c r="G25" s="128" t="inlineStr">
         <is>
@@ -10361,7 +10499,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="119" t="n"/>
+      <c r="E26" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="119" t="n"/>
       <c r="G26" s="128" t="inlineStr">
         <is>
@@ -10441,7 +10583,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="119" t="n"/>
+      <c r="E28" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="119" t="n"/>
       <c r="G28" s="128" t="inlineStr">
         <is>
@@ -10477,7 +10623,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="119" t="n"/>
+      <c r="E29" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F29" s="119" t="n"/>
       <c r="G29" s="128" t="inlineStr">
         <is>
@@ -10513,7 +10663,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="119" t="n"/>
+      <c r="E30" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="119" t="n"/>
       <c r="G30" s="128" t="inlineStr">
         <is>
@@ -10549,7 +10703,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="119" t="n"/>
+      <c r="E31" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="119" t="n"/>
       <c r="G31" s="128" t="inlineStr">
         <is>
@@ -10585,7 +10743,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="119" t="n"/>
+      <c r="E32" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="119" t="n"/>
       <c r="G32" s="128" t="inlineStr">
         <is>
@@ -10621,7 +10783,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="119" t="n"/>
+      <c r="E33" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="119" t="n"/>
       <c r="G33" s="128" t="inlineStr">
         <is>
@@ -10657,7 +10823,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="119" t="n"/>
+      <c r="E34" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F34" s="119" t="n"/>
       <c r="G34" s="128" t="inlineStr">
         <is>
@@ -10693,7 +10863,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="119" t="n"/>
+      <c r="E35" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F35" s="119" t="n"/>
       <c r="G35" s="128" t="inlineStr">
         <is>
@@ -10729,7 +10903,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="119" t="n"/>
+      <c r="E36" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F36" s="119" t="n"/>
       <c r="G36" s="128" t="inlineStr">
         <is>
@@ -10765,7 +10943,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="119" t="n"/>
+      <c r="E37" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="119" t="n"/>
       <c r="G37" s="128" t="inlineStr">
         <is>
@@ -10801,7 +10983,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="119" t="n"/>
+      <c r="E38" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="119" t="n"/>
       <c r="G38" s="128" t="inlineStr">
         <is>
@@ -10837,7 +11023,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="119" t="n"/>
+      <c r="E39" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="119" t="n"/>
       <c r="G39" s="128" t="inlineStr">
         <is>
@@ -10873,7 +11063,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="119" t="n"/>
+      <c r="E40" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="119" t="n"/>
       <c r="G40" s="128" t="inlineStr">
         <is>
@@ -10909,7 +11103,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="119" t="n"/>
+      <c r="E41" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F41" s="119" t="n"/>
       <c r="G41" s="128" t="inlineStr">
         <is>
@@ -10945,7 +11143,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="119" t="n"/>
+      <c r="E42" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="119" t="n"/>
       <c r="G42" s="128" t="inlineStr">
         <is>
@@ -10981,7 +11183,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="119" t="n"/>
+      <c r="E43" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="119" t="n"/>
       <c r="G43" s="128" t="inlineStr">
         <is>
@@ -11017,7 +11223,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="119" t="n"/>
+      <c r="E44" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="119" t="n"/>
       <c r="G44" s="128" t="inlineStr">
         <is>
@@ -11053,7 +11263,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="119" t="n"/>
+      <c r="E45" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="119" t="n"/>
       <c r="G45" s="128" t="inlineStr">
         <is>
@@ -11089,7 +11303,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="119" t="n"/>
+      <c r="E46" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F46" s="119" t="n"/>
       <c r="G46" s="128" t="inlineStr">
         <is>
@@ -11125,7 +11343,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="119" t="n"/>
+      <c r="E47" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="119" t="n"/>
       <c r="G47" s="128" t="inlineStr">
         <is>
@@ -11161,7 +11383,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="119" t="n"/>
+      <c r="E48" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F48" s="119" t="n"/>
       <c r="G48" s="128" t="inlineStr">
         <is>
@@ -11197,7 +11423,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="119" t="n"/>
+      <c r="E49" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F49" s="119" t="n"/>
       <c r="G49" s="128" t="inlineStr">
         <is>
@@ -11233,7 +11463,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="119" t="n"/>
+      <c r="E50" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F50" s="119" t="n"/>
       <c r="G50" s="128" t="inlineStr">
         <is>
@@ -11269,7 +11503,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="119" t="n"/>
+      <c r="E51" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="119" t="n"/>
       <c r="G51" s="128" t="inlineStr">
         <is>
@@ -11305,7 +11543,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="119" t="n"/>
+      <c r="E52" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F52" s="119" t="n"/>
       <c r="G52" s="128" t="inlineStr">
         <is>
@@ -11341,7 +11583,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="119" t="n"/>
+      <c r="E53" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="119" t="n"/>
       <c r="G53" s="128" t="inlineStr">
         <is>
@@ -11417,7 +11663,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="119" t="n"/>
+      <c r="E55" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="119" t="n"/>
       <c r="G55" s="128" t="inlineStr">
         <is>
@@ -11453,7 +11703,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="119" t="n"/>
+      <c r="E56" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F56" s="119" t="n"/>
       <c r="G56" s="128" t="inlineStr">
         <is>
@@ -11489,7 +11743,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="119" t="n"/>
+      <c r="E57" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F57" s="119" t="n"/>
       <c r="G57" s="128" t="inlineStr">
         <is>
@@ -11525,7 +11783,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="119" t="n"/>
+      <c r="E58" s="132" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="119" t="n"/>
       <c r="G58" s="128" t="inlineStr">
         <is>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -6161,9 +6161,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="131" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E46" s="130" t="inlineStr">
+        <is>
+          <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F46" s="119" t="n"/>
@@ -7072,9 +7072,9 @@
           <t>04/09/2025</t>
         </is>
       </c>
-      <c r="G6" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G6" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H6" s="119" t="n"/>
@@ -7512,9 +7512,9 @@
           <t>05/09/2025</t>
         </is>
       </c>
-      <c r="G16" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G16" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H16" s="119" t="n"/>
@@ -7732,9 +7732,9 @@
           <t>03/09/2025</t>
         </is>
       </c>
-      <c r="G21" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G21" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H21" s="119" t="n"/>
@@ -7776,9 +7776,9 @@
           <t>10/09/2025</t>
         </is>
       </c>
-      <c r="G22" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G22" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="119" t="n"/>
@@ -7820,9 +7820,9 @@
           <t>10/09/2025</t>
         </is>
       </c>
-      <c r="G23" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G23" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H23" s="119" t="n"/>
@@ -7864,9 +7864,9 @@
           <t>11/09/2025</t>
         </is>
       </c>
-      <c r="G24" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G24" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H24" s="119" t="n"/>
@@ -8352,9 +8352,9 @@
           <t>08/09/2025</t>
         </is>
       </c>
-      <c r="G35" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G35" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H35" s="119" t="n"/>
@@ -8704,9 +8704,9 @@
           <t>08/09/2025</t>
         </is>
       </c>
-      <c r="G43" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="119" t="n"/>
@@ -8968,9 +8968,9 @@
           <t>25/08/2025</t>
         </is>
       </c>
-      <c r="G49" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G49" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H49" s="119" t="n"/>
@@ -9579,12 +9579,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="119" t="n"/>
+      <c r="E3" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="119" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
       <c r="G3" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9659,12 +9663,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="119" t="n"/>
+      <c r="E5" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G5" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9779,12 +9787,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F8" s="119" t="n"/>
+      <c r="E8" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G8" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10099,12 +10111,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="119" t="n"/>
+      <c r="E16" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="119" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
       <c r="G16" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10139,12 +10155,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F17" s="119" t="n"/>
+      <c r="E17" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="119" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G17" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10179,12 +10199,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F18" s="119" t="n"/>
+      <c r="E18" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="119" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G18" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10259,12 +10283,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F20" s="119" t="n"/>
+      <c r="E20" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="119" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G20" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10299,12 +10327,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="119" t="n"/>
+      <c r="E21" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="119" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G21" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10743,12 +10775,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="119" t="n"/>
+      <c r="E32" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G32" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10823,12 +10859,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="119" t="n"/>
+      <c r="E34" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G34" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10903,12 +10943,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F36" s="119" t="n"/>
+      <c r="E36" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="119" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
       <c r="G36" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11103,12 +11147,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="119" t="n"/>
+      <c r="E41" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="119" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
       <c r="G41" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11183,12 +11231,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="119" t="n"/>
+      <c r="E43" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G43" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11223,12 +11275,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="119" t="n"/>
+      <c r="E44" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G44" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11263,12 +11319,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F45" s="119" t="n"/>
+      <c r="E45" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="119" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
       <c r="G45" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11303,12 +11363,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F46" s="119" t="n"/>
+      <c r="E46" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="119" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G46" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11383,12 +11447,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="119" t="n"/>
+      <c r="E48" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="119" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G48" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11423,12 +11491,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F49" s="119" t="n"/>
+      <c r="E49" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="119" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
       <c r="G49" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11543,12 +11615,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="119" t="n"/>
+      <c r="E52" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="119" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G52" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11783,12 +11859,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="119" t="n"/>
+      <c r="E58" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="119" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
       <c r="G58" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -18674,7 +18754,9 @@
     <col width="20.28515625" customWidth="1" min="6" max="6"/>
     <col width="21.28515625" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="20.42578125" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
     <col width="9.140625" customWidth="1" min="16" max="16"/>
     <col width="18.42578125" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -856,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,9 +1226,13 @@
     <xf numFmtId="0" fontId="21" fillId="70" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="72" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="74" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2411,7 +2415,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="32" t="inlineStr">
         <is>
-          <t>08.25</t>
+          <t>09.25</t>
         </is>
       </c>
       <c r="B12" s="26" t="n"/>
@@ -3148,7 +3152,7 @@
       </c>
       <c r="F23" s="29" t="n"/>
       <c r="G23" s="58">
-        <f t="array" ref="G23">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G23">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E14, 0)</f>
         <v/>
       </c>
       <c r="H23" s="29" t="n"/>
@@ -3163,7 +3167,7 @@
       </c>
       <c r="L23" s="29" t="n"/>
       <c r="M23" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")-SUM(L14:M14)</f>
         <v/>
       </c>
       <c r="N23" s="29" t="n"/>
@@ -3203,7 +3207,7 @@
       </c>
       <c r="F24" s="29" t="n"/>
       <c r="G24" s="58">
-        <f t="array" ref="G24">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G24">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E15, 0)</f>
         <v/>
       </c>
       <c r="H24" s="29" t="n"/>
@@ -3218,7 +3222,7 @@
       </c>
       <c r="L24" s="29" t="n"/>
       <c r="M24" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")-SUM(L15:M15)</f>
         <v/>
       </c>
       <c r="N24" s="29" t="n"/>
@@ -3258,7 +3262,7 @@
       </c>
       <c r="F25" s="29" t="n"/>
       <c r="G25" s="58">
-        <f t="array" ref="G25">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G25">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E16, 0)</f>
         <v/>
       </c>
       <c r="H25" s="29" t="n"/>
@@ -3273,7 +3277,7 @@
       </c>
       <c r="L25" s="29" t="n"/>
       <c r="M25" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")-SUM(L16:M16)</f>
         <v/>
       </c>
       <c r="N25" s="29" t="n"/>
@@ -3313,7 +3317,7 @@
       </c>
       <c r="F26" s="29" t="n"/>
       <c r="G26" s="58">
-        <f t="array" ref="G26">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G26">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E17, 0)</f>
         <v/>
       </c>
       <c r="H26" s="29" t="n"/>
@@ -3328,7 +3332,7 @@
       </c>
       <c r="L26" s="29" t="n"/>
       <c r="M26" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")-SUM(L17:M17)</f>
         <v/>
       </c>
       <c r="N26" s="29" t="n"/>
@@ -3368,7 +3372,7 @@
       </c>
       <c r="F27" s="29" t="n"/>
       <c r="G27" s="58">
-        <f t="array" ref="G27">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G27">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E18, 0)</f>
         <v/>
       </c>
       <c r="H27" s="29" t="n"/>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="L27" s="29" t="n"/>
       <c r="M27" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")-SUM(L18:M18)</f>
         <v/>
       </c>
       <c r="N27" s="29" t="n"/>
@@ -3423,7 +3427,7 @@
       </c>
       <c r="F28" s="29" t="n"/>
       <c r="G28" s="58">
-        <f t="array" ref="G28">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G28">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E19, 0)</f>
         <v/>
       </c>
       <c r="H28" s="29" t="n"/>
@@ -3438,7 +3442,7 @@
       </c>
       <c r="L28" s="29" t="n"/>
       <c r="M28" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")-SUM(L19:M19)</f>
         <v/>
       </c>
       <c r="N28" s="29" t="n"/>
@@ -3475,7 +3479,7 @@
       </c>
       <c r="F29" s="29" t="n"/>
       <c r="G29" s="58">
-        <f t="array" ref="G29">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
+        <f t="array" ref="G29">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E20, 0)</f>
         <v/>
       </c>
       <c r="H29" s="29" t="n"/>
@@ -3490,7 +3494,7 @@
       </c>
       <c r="L29" s="29" t="n"/>
       <c r="M29" s="58">
-        <f>COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")</f>
+        <f>COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")-SUM(L20:M20)</f>
         <v/>
       </c>
       <c r="N29" s="29" t="n"/>
@@ -4301,7 +4305,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="131" t="inlineStr">
+      <c r="E4" s="132" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5340,14 +5344,24 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H27" s="119" t="n"/>
-      <c r="I27" s="119" t="n"/>
+      <c r="H27" s="119" t="inlineStr">
+        <is>
+          <t>Duplicado listado para deleção</t>
+        </is>
+      </c>
+      <c r="I27" s="119" t="n">
+        <v>5512</v>
+      </c>
       <c r="J27" s="119" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K27" s="119" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="inlineStr">
+        <is>
+          <t>Deletado 5512</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="125" t="inlineStr">
@@ -6161,12 +6175,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="130" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F46" s="119" t="n"/>
+      <c r="E46" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G46" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7194,12 +7212,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="131" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F9" s="119" t="n"/>
+      <c r="E9" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="119" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G9" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7898,7 +7920,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="131" t="inlineStr">
+      <c r="E25" s="132" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -7953,11 +7975,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H26" s="119" t="inlineStr">
-        <is>
-          <t>Valor do pet cristal está baixo</t>
-        </is>
-      </c>
+      <c r="H26" s="119" t="n"/>
       <c r="I26" s="119" t="n"/>
       <c r="J26" s="119" t="inlineStr">
         <is>
@@ -9453,10 +9471,10 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="64" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -9541,7 +9559,7 @@
       </c>
       <c r="E2" s="132" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F2" s="119" t="n"/>
@@ -9589,9 +9607,9 @@
           <t>03/10/2025</t>
         </is>
       </c>
-      <c r="G3" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G3" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H3" s="119" t="n"/>
@@ -9625,16 +9643,20 @@
       </c>
       <c r="E4" s="132" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F4" s="119" t="n"/>
-      <c r="G4" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="119" t="n"/>
+      <c r="G4" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="119" t="inlineStr">
+        <is>
+          <t>a técnica não esta na UVR</t>
+        </is>
+      </c>
       <c r="I4" s="119" t="n"/>
       <c r="J4" s="119" t="inlineStr">
         <is>
@@ -9673,9 +9695,9 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="G5" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G5" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H5" s="119" t="n"/>
@@ -9707,15 +9729,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="119" t="n"/>
-      <c r="G6" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E6" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G6" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H6" s="119" t="n"/>
@@ -9747,15 +9773,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F7" s="119" t="n"/>
-      <c r="G7" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E7" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G7" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H7" s="119" t="n"/>
@@ -9797,9 +9827,9 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="G8" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G8" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H8" s="119" t="n"/>
@@ -9831,12 +9861,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F9" s="119" t="n"/>
+      <c r="E9" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="119" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
       <c r="G9" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9871,12 +9905,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F10" s="119" t="n"/>
+      <c r="E10" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G10" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9911,12 +9949,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="119" t="n"/>
+      <c r="E11" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G11" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9951,12 +9993,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="119" t="n"/>
+      <c r="E12" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G12" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9991,12 +10037,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="119" t="n"/>
+      <c r="E13" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G13" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10031,12 +10081,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="119" t="n"/>
+      <c r="E14" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G14" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10071,12 +10125,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="119" t="n"/>
+      <c r="E15" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
       <c r="G15" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10121,9 +10179,9 @@
           <t>03/10/2025</t>
         </is>
       </c>
-      <c r="G16" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G16" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H16" s="119" t="n"/>
@@ -10209,12 +10267,16 @@
           <t>06/10/2025</t>
         </is>
       </c>
-      <c r="G18" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H18" s="119" t="n"/>
+      <c r="G18" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H18" s="119" t="inlineStr">
+        <is>
+          <t>Dados inconsistentes. Necessita revisão!</t>
+        </is>
+      </c>
       <c r="I18" s="119" t="n"/>
       <c r="J18" s="119" t="inlineStr">
         <is>
@@ -10245,7 +10307,7 @@
       </c>
       <c r="E19" s="132" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F19" s="119" t="n"/>
@@ -10293,9 +10355,9 @@
           <t>06/10/2025</t>
         </is>
       </c>
-      <c r="G20" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G20" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H20" s="119" t="n"/>
@@ -10342,7 +10404,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H21" s="119" t="n"/>
+      <c r="H21" s="119" t="inlineStr">
+        <is>
+          <t>atualizar os eletronicos</t>
+        </is>
+      </c>
       <c r="I21" s="119" t="n"/>
       <c r="J21" s="119" t="inlineStr">
         <is>
@@ -10371,18 +10437,26 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="119" t="n"/>
+      <c r="E22" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="119" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
       <c r="G22" s="128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H22" s="119" t="n"/>
+      <c r="H22" s="119" t="inlineStr">
+        <is>
+          <t>atualizar as vendas dos reciclaveis</t>
+        </is>
+      </c>
       <c r="I22" s="119" t="n"/>
       <c r="J22" s="119" t="inlineStr">
         <is>
@@ -10411,18 +10485,26 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="119" t="n"/>
+      <c r="E23" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="119" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
       <c r="G23" s="128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H23" s="119" t="n"/>
+      <c r="H23" s="119" t="inlineStr">
+        <is>
+          <t>atualizar as vendas dos reciclaveis</t>
+        </is>
+      </c>
       <c r="I23" s="119" t="n"/>
       <c r="J23" s="119" t="inlineStr">
         <is>
@@ -10451,18 +10533,26 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="119" t="n"/>
+      <c r="E24" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="119" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
       <c r="G24" s="128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H24" s="119" t="n"/>
+      <c r="H24" s="119" t="inlineStr">
+        <is>
+          <t>atualizar as vendas dos reciclaveis</t>
+        </is>
+      </c>
       <c r="I24" s="119" t="n"/>
       <c r="J24" s="119" t="inlineStr">
         <is>
@@ -10493,7 +10583,7 @@
       </c>
       <c r="E25" s="132" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F25" s="119" t="n"/>
@@ -10531,15 +10621,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="119" t="n"/>
-      <c r="G26" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E26" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G26" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H26" s="119" t="n"/>
@@ -10581,9 +10675,9 @@
           <t>16/09/2025</t>
         </is>
       </c>
-      <c r="G27" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="119" t="n"/>
@@ -10615,15 +10709,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="119" t="n"/>
-      <c r="G28" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E28" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G28" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H28" s="119" t="n"/>
@@ -10655,25 +10753,41 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F29" s="119" t="n"/>
-      <c r="G29" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="119" t="n"/>
-      <c r="I29" s="119" t="n"/>
+      <c r="E29" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="G29" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H29" s="119" t="inlineStr">
+        <is>
+          <t>excluir ID 5477</t>
+        </is>
+      </c>
+      <c r="I29" s="133" t="inlineStr">
+        <is>
+          <t>ID 5477</t>
+        </is>
+      </c>
       <c r="J29" s="119" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K29" s="119" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K29" s="119" t="inlineStr">
+        <is>
+          <t>Deletado 5477</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="123" t="inlineStr">
@@ -10695,15 +10809,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F30" s="119" t="n"/>
-      <c r="G30" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E30" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G30" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H30" s="119" t="n"/>
@@ -10735,12 +10853,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F31" s="119" t="n"/>
+      <c r="E31" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
       <c r="G31" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10819,15 +10941,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="119" t="n"/>
-      <c r="G33" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E33" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G33" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H33" s="119" t="n"/>
@@ -10869,9 +10995,9 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="G34" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G34" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H34" s="119" t="n"/>
@@ -10903,15 +11029,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F35" s="119" t="n"/>
-      <c r="G35" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E35" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="G35" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H35" s="119" t="n"/>
@@ -10987,15 +11117,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="119" t="n"/>
-      <c r="G37" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E37" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="119" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="G37" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H37" s="119" t="n"/>
@@ -11027,15 +11161,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="119" t="n"/>
-      <c r="G38" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E38" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G38" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H38" s="119" t="n"/>
@@ -11067,12 +11205,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="119" t="n"/>
+      <c r="E39" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="119" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G39" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11107,15 +11249,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="119" t="n"/>
-      <c r="G40" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E40" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G40" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H40" s="119" t="n"/>
@@ -11157,9 +11303,9 @@
           <t>30/09/2025</t>
         </is>
       </c>
-      <c r="G41" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G41" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H41" s="119" t="n"/>
@@ -11191,12 +11337,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="119" t="n"/>
+      <c r="E42" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
       <c r="G42" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11241,9 +11391,9 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="G43" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="119" t="n"/>
@@ -11329,9 +11479,9 @@
           <t>03/10/2025</t>
         </is>
       </c>
-      <c r="G45" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G45" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H45" s="119" t="n"/>
@@ -11409,7 +11559,7 @@
       </c>
       <c r="E47" s="132" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F47" s="119" t="n"/>
@@ -11501,9 +11651,9 @@
           <t>02/10/2025</t>
         </is>
       </c>
-      <c r="G49" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G49" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H49" s="119" t="n"/>
@@ -11535,12 +11685,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F50" s="119" t="n"/>
+      <c r="E50" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
       <c r="G50" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11575,18 +11729,26 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="119" t="n"/>
-      <c r="G51" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H51" s="119" t="n"/>
+      <c r="E51" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="G51" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H51" s="119" t="inlineStr">
+        <is>
+          <t>Validado, porém associação não quis passar o fundo de caixa</t>
+        </is>
+      </c>
       <c r="I51" s="119" t="n"/>
       <c r="J51" s="119" t="inlineStr">
         <is>
@@ -11625,9 +11787,9 @@
           <t>06/10/2025</t>
         </is>
       </c>
-      <c r="G52" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="119" t="n"/>
@@ -11661,7 +11823,7 @@
       </c>
       <c r="E53" s="132" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F53" s="119" t="n"/>
@@ -11670,7 +11832,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H53" s="119" t="n"/>
+      <c r="H53" s="119" t="inlineStr">
+        <is>
+          <t>Técnico afastado por motivos de saúde</t>
+        </is>
+      </c>
       <c r="I53" s="119" t="n"/>
       <c r="J53" s="119" t="inlineStr">
         <is>
@@ -11739,15 +11905,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="119" t="n"/>
-      <c r="G55" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E55" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="119" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G55" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H55" s="119" t="n"/>
@@ -11779,15 +11949,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="119" t="n"/>
-      <c r="G56" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E56" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="119" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="G56" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H56" s="119" t="n"/>
@@ -11819,12 +11993,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F57" s="119" t="n"/>
+      <c r="E57" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="119" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G57" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12044,7 +12222,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="119" t="n"/>
+      <c r="E2" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="119" t="n"/>
       <c r="G2" s="128" t="inlineStr">
         <is>
@@ -12080,7 +12262,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="119" t="n"/>
+      <c r="E3" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="119" t="n"/>
       <c r="G3" s="128" t="inlineStr">
         <is>
@@ -12116,7 +12302,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="119" t="n"/>
+      <c r="E4" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="119" t="n"/>
       <c r="G4" s="128" t="inlineStr">
         <is>
@@ -12152,7 +12342,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="119" t="n"/>
+      <c r="E5" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="119" t="n"/>
       <c r="G5" s="128" t="inlineStr">
         <is>
@@ -12188,7 +12382,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="119" t="n"/>
+      <c r="E6" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="119" t="n"/>
       <c r="G6" s="128" t="inlineStr">
         <is>
@@ -12224,7 +12422,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="119" t="n"/>
+      <c r="E7" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F7" s="119" t="n"/>
       <c r="G7" s="128" t="inlineStr">
         <is>
@@ -12260,7 +12462,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="119" t="n"/>
+      <c r="E8" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="119" t="n"/>
       <c r="G8" s="128" t="inlineStr">
         <is>
@@ -12296,7 +12502,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="119" t="n"/>
+      <c r="E9" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="119" t="n"/>
       <c r="G9" s="128" t="inlineStr">
         <is>
@@ -12332,7 +12542,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="119" t="n"/>
+      <c r="E10" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F10" s="119" t="n"/>
       <c r="G10" s="128" t="inlineStr">
         <is>
@@ -12368,7 +12582,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="119" t="n"/>
+      <c r="E11" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="119" t="n"/>
       <c r="G11" s="128" t="inlineStr">
         <is>
@@ -12404,7 +12622,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="119" t="n"/>
+      <c r="E12" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="119" t="n"/>
       <c r="G12" s="128" t="inlineStr">
         <is>
@@ -12440,7 +12662,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="119" t="n"/>
+      <c r="E13" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="119" t="n"/>
       <c r="G13" s="128" t="inlineStr">
         <is>
@@ -12476,7 +12702,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="119" t="n"/>
+      <c r="E14" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="119" t="n"/>
       <c r="G14" s="128" t="inlineStr">
         <is>
@@ -12512,7 +12742,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="119" t="n"/>
+      <c r="E15" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="119" t="n"/>
       <c r="G15" s="128" t="inlineStr">
         <is>
@@ -12548,7 +12782,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="119" t="n"/>
+      <c r="E16" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="119" t="n"/>
       <c r="G16" s="128" t="inlineStr">
         <is>
@@ -12584,7 +12822,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="119" t="n"/>
+      <c r="E17" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="119" t="n"/>
       <c r="G17" s="128" t="inlineStr">
         <is>
@@ -12620,7 +12862,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="119" t="n"/>
+      <c r="E18" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="119" t="n"/>
       <c r="G18" s="128" t="inlineStr">
         <is>
@@ -12656,7 +12902,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="119" t="n"/>
+      <c r="E19" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="119" t="n"/>
       <c r="G19" s="128" t="inlineStr">
         <is>
@@ -12692,8 +12942,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="119" t="n"/>
-      <c r="F20" s="119" t="n"/>
+      <c r="E20" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F20" s="119" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
       <c r="G20" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12728,7 +12986,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="119" t="n"/>
+      <c r="E21" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="119" t="n"/>
       <c r="G21" s="128" t="inlineStr">
         <is>
@@ -12764,7 +13026,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="119" t="n"/>
+      <c r="E22" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="119" t="n"/>
       <c r="G22" s="128" t="inlineStr">
         <is>
@@ -12800,7 +13066,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="119" t="n"/>
+      <c r="E23" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="119" t="n"/>
       <c r="G23" s="128" t="inlineStr">
         <is>
@@ -12836,7 +13106,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="119" t="n"/>
+      <c r="E24" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="119" t="n"/>
       <c r="G24" s="128" t="inlineStr">
         <is>
@@ -12872,7 +13146,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="119" t="n"/>
+      <c r="E25" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="119" t="n"/>
       <c r="G25" s="128" t="inlineStr">
         <is>
@@ -12908,7 +13186,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="119" t="n"/>
+      <c r="E26" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="119" t="n"/>
       <c r="G26" s="128" t="inlineStr">
         <is>
@@ -12944,8 +13226,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="119" t="n"/>
-      <c r="F27" s="119" t="n"/>
+      <c r="E27" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="119" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
       <c r="G27" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12980,7 +13270,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="119" t="n"/>
+      <c r="E28" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="119" t="n"/>
       <c r="G28" s="128" t="inlineStr">
         <is>
@@ -13016,8 +13310,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="119" t="n"/>
-      <c r="F29" s="119" t="n"/>
+      <c r="E29" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="119" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
       <c r="G29" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13052,7 +13354,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="119" t="n"/>
+      <c r="E30" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="119" t="n"/>
       <c r="G30" s="128" t="inlineStr">
         <is>
@@ -13088,7 +13394,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="119" t="n"/>
+      <c r="E31" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="119" t="n"/>
       <c r="G31" s="128" t="inlineStr">
         <is>
@@ -13124,7 +13434,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="119" t="n"/>
+      <c r="E32" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="119" t="n"/>
       <c r="G32" s="128" t="inlineStr">
         <is>
@@ -13160,7 +13474,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="119" t="n"/>
+      <c r="E33" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="119" t="n"/>
       <c r="G33" s="128" t="inlineStr">
         <is>
@@ -13196,8 +13514,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="119" t="n"/>
-      <c r="F34" s="119" t="n"/>
+      <c r="E34" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="119" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
       <c r="G34" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13232,7 +13558,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="119" t="n"/>
+      <c r="E35" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F35" s="119" t="n"/>
       <c r="G35" s="128" t="inlineStr">
         <is>
@@ -13268,7 +13598,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="119" t="n"/>
+      <c r="E36" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F36" s="119" t="n"/>
       <c r="G36" s="128" t="inlineStr">
         <is>
@@ -13304,7 +13638,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="119" t="n"/>
+      <c r="E37" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="119" t="n"/>
       <c r="G37" s="128" t="inlineStr">
         <is>
@@ -13340,7 +13678,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="119" t="n"/>
+      <c r="E38" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="119" t="n"/>
       <c r="G38" s="128" t="inlineStr">
         <is>
@@ -13376,7 +13718,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="119" t="n"/>
+      <c r="E39" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="119" t="n"/>
       <c r="G39" s="128" t="inlineStr">
         <is>
@@ -13412,7 +13758,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="119" t="n"/>
+      <c r="E40" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="119" t="n"/>
       <c r="G40" s="128" t="inlineStr">
         <is>
@@ -13448,8 +13798,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="119" t="n"/>
-      <c r="F41" s="119" t="n"/>
+      <c r="E41" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="119" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
       <c r="G41" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13484,7 +13842,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="119" t="n"/>
+      <c r="E42" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="119" t="n"/>
       <c r="G42" s="128" t="inlineStr">
         <is>
@@ -13520,7 +13882,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="119" t="n"/>
+      <c r="E43" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="119" t="n"/>
       <c r="G43" s="128" t="inlineStr">
         <is>
@@ -13556,7 +13922,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="119" t="n"/>
+      <c r="E44" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="119" t="n"/>
       <c r="G44" s="128" t="inlineStr">
         <is>
@@ -13592,8 +13962,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="119" t="n"/>
-      <c r="F45" s="119" t="n"/>
+      <c r="E45" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="119" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
       <c r="G45" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13628,7 +14006,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="119" t="n"/>
+      <c r="E46" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F46" s="119" t="n"/>
       <c r="G46" s="128" t="inlineStr">
         <is>
@@ -13664,7 +14046,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="119" t="n"/>
+      <c r="E47" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="119" t="n"/>
       <c r="G47" s="128" t="inlineStr">
         <is>
@@ -13700,7 +14086,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="119" t="n"/>
+      <c r="E48" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F48" s="119" t="n"/>
       <c r="G48" s="128" t="inlineStr">
         <is>
@@ -13736,8 +14126,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="119" t="n"/>
-      <c r="F49" s="119" t="n"/>
+      <c r="E49" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="119" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
       <c r="G49" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13772,7 +14170,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="119" t="n"/>
+      <c r="E50" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F50" s="119" t="n"/>
       <c r="G50" s="128" t="inlineStr">
         <is>
@@ -13808,7 +14210,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="119" t="n"/>
+      <c r="E51" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="119" t="n"/>
       <c r="G51" s="128" t="inlineStr">
         <is>
@@ -13844,8 +14250,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="119" t="n"/>
-      <c r="F52" s="119" t="n"/>
+      <c r="E52" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="119" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
       <c r="G52" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13880,7 +14294,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="119" t="n"/>
+      <c r="E53" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="119" t="n"/>
       <c r="G53" s="128" t="inlineStr">
         <is>
@@ -13956,7 +14374,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="119" t="n"/>
+      <c r="E55" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="119" t="n"/>
       <c r="G55" s="128" t="inlineStr">
         <is>
@@ -13992,7 +14414,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="119" t="n"/>
+      <c r="E56" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F56" s="119" t="n"/>
       <c r="G56" s="128" t="inlineStr">
         <is>
@@ -14028,7 +14454,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="119" t="n"/>
+      <c r="E57" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F57" s="119" t="n"/>
       <c r="G57" s="128" t="inlineStr">
         <is>
@@ -14064,7 +14494,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="119" t="n"/>
+      <c r="E58" s="134" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="119" t="n"/>
       <c r="G58" s="128" t="inlineStr">
         <is>
@@ -58460,19 +58894,31 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G39" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H39" s="119" t="n"/>
-      <c r="I39" s="119" t="n"/>
+      <c r="G39" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H39" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deletar duplicados </t>
+        </is>
+      </c>
+      <c r="I39" s="131" t="inlineStr">
+        <is>
+          <t>ID5466 e ID5465</t>
+        </is>
+      </c>
       <c r="J39" s="119" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K39" s="119" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K39" s="119" t="inlineStr">
+        <is>
+          <t>Deletado 5466 e 5465</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="118" t="inlineStr">
@@ -67702,7 +68148,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="131" t="inlineStr">
+      <c r="E4" s="132" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -69562,15 +70008,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="131" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F46" s="119" t="n"/>
-      <c r="G46" s="121" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="E46" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="119" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="G46" s="128" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H46" s="119" t="inlineStr">

--- a/outputs/expansao_atualizado_form4.xlsx
+++ b/outputs/expansao_atualizado_form4.xlsx
@@ -45,8 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -856,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,11 +1237,14 @@
     <xf numFmtId="0" fontId="21" fillId="74" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1484,6 +1488,19 @@
         <patternFill patternType="solid">
           <fgColor rgb="00808080"/>
           <bgColor rgb="00808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0031869b"/>
+          <bgColor rgb="0031869b"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2415,7 +2432,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="32" t="inlineStr">
         <is>
-          <t>09.25</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="B12" s="26" t="n"/>
@@ -3157,7 +3174,7 @@
       </c>
       <c r="H23" s="29" t="n"/>
       <c r="I23" s="59">
-        <f>E23/SUM(E23:H23)</f>
+        <f>IFERROR(E23/SUM(E23:H23),0)</f>
         <v/>
       </c>
       <c r="J23" s="24" t="n"/>
@@ -3212,7 +3229,7 @@
       </c>
       <c r="H24" s="29" t="n"/>
       <c r="I24" s="59">
-        <f>E24/SUM(E24:H24)</f>
+        <f>IFERROR(E24/SUM(E24:H24),0)</f>
         <v/>
       </c>
       <c r="J24" s="24" t="n"/>
@@ -3267,7 +3284,7 @@
       </c>
       <c r="H25" s="29" t="n"/>
       <c r="I25" s="59">
-        <f>E25/SUM(E25:H25)</f>
+        <f>IFERROR(E25/SUM(E25:H25),0)</f>
         <v/>
       </c>
       <c r="J25" s="24" t="n"/>
@@ -3322,7 +3339,7 @@
       </c>
       <c r="H26" s="29" t="n"/>
       <c r="I26" s="59">
-        <f>E26/SUM(E26:H26)</f>
+        <f>IFERROR(E26/SUM(E26:H26),0)</f>
         <v/>
       </c>
       <c r="J26" s="24" t="n"/>
@@ -3377,7 +3394,7 @@
       </c>
       <c r="H27" s="29" t="n"/>
       <c r="I27" s="59">
-        <f>E27/SUM(E27:H27)</f>
+        <f>IFERROR(E27/SUM(E27:H27),0)</f>
         <v/>
       </c>
       <c r="J27" s="24" t="n"/>
@@ -3432,7 +3449,7 @@
       </c>
       <c r="H28" s="29" t="n"/>
       <c r="I28" s="59">
-        <f>E28/SUM(E28:H28)</f>
+        <f>IFERROR(E28/SUM(E28:H28),0)</f>
         <v/>
       </c>
       <c r="J28" s="24" t="n"/>
@@ -3484,7 +3501,7 @@
       </c>
       <c r="H29" s="29" t="n"/>
       <c r="I29" s="59">
-        <f>E29/SUM(E29:H29)</f>
+        <f>IFERROR(E29/SUM(E29:H29),0)</f>
         <v/>
       </c>
       <c r="J29" s="24" t="n"/>
@@ -4049,8 +4066,8 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="C11:I11"/>
-    <mergeCell ref="K11:P11"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C33:D33"/>
@@ -6780,7 +6797,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9433,7 +9450,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9471,10 +9488,10 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="64" customWidth="1" min="8" max="8"/>
+    <col width="77" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -9557,9 +9574,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E2" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F2" s="119" t="n"/>
@@ -9568,7 +9585,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="119" t="n"/>
+      <c r="H2" s="119" t="inlineStr">
+        <is>
+          <t>Sem acesso aos dados e informações. Técnica impossibilitada atuar na UVR</t>
+        </is>
+      </c>
       <c r="I2" s="119" t="n"/>
       <c r="J2" s="119" t="inlineStr">
         <is>
@@ -9915,9 +9936,9 @@
           <t>09/10/2025</t>
         </is>
       </c>
-      <c r="G10" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G10" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H10" s="119" t="n"/>
@@ -9959,9 +9980,9 @@
           <t>09/10/2025</t>
         </is>
       </c>
-      <c r="G11" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G11" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="119" t="n"/>
@@ -10003,9 +10024,9 @@
           <t>09/10/2025</t>
         </is>
       </c>
-      <c r="G12" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G12" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H12" s="119" t="n"/>
@@ -10047,9 +10068,9 @@
           <t>09/10/2025</t>
         </is>
       </c>
-      <c r="G13" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G13" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H13" s="119" t="n"/>
@@ -10091,9 +10112,9 @@
           <t>09/10/2025</t>
         </is>
       </c>
-      <c r="G14" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G14" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H14" s="119" t="n"/>
@@ -10135,9 +10156,9 @@
           <t>08/10/2025</t>
         </is>
       </c>
-      <c r="G15" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G15" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H15" s="119" t="n"/>
@@ -10223,9 +10244,9 @@
           <t>06/10/2025</t>
         </is>
       </c>
-      <c r="G17" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G17" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H17" s="119" t="n"/>
@@ -10305,9 +10326,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E19" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F19" s="119" t="n"/>
@@ -10316,7 +10337,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H19" s="119" t="n"/>
+      <c r="H19" s="119" t="inlineStr">
+        <is>
+          <t>Associação ainda não iniciou suas atividades</t>
+        </is>
+      </c>
       <c r="I19" s="119" t="n"/>
       <c r="J19" s="119" t="inlineStr">
         <is>
@@ -10863,9 +10888,9 @@
           <t>08/10/2025</t>
         </is>
       </c>
-      <c r="G31" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G31" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H31" s="119" t="n"/>
@@ -11523,9 +11548,9 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="G46" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G46" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H46" s="119" t="n"/>
@@ -11557,18 +11582,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="132" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
+      <c r="E47" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F47" s="119" t="n"/>
-      <c r="G47" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H47" s="119" t="n"/>
+      <c r="G47" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H47" s="133" t="inlineStr">
+        <is>
+          <t>Associação ainda não iniciou suas atividades sem dados</t>
+        </is>
+      </c>
       <c r="I47" s="119" t="n"/>
       <c r="J47" s="119" t="inlineStr">
         <is>
@@ -11607,9 +11636,9 @@
           <t>06/10/2025</t>
         </is>
       </c>
-      <c r="G48" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G48" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H48" s="119" t="n"/>
@@ -12003,9 +12032,9 @@
           <t>10/10/2025</t>
         </is>
       </c>
-      <c r="G57" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="119" t="n"/>
@@ -12047,9 +12076,9 @@
           <t>02/10/2025</t>
         </is>
       </c>
-      <c r="G58" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G58" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H58" s="119" t="n"/>
@@ -12098,7 +12127,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12136,10 +12165,10 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="115" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -12222,9 +12251,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E2" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F2" s="119" t="n"/>
@@ -12233,7 +12262,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="119" t="n"/>
+      <c r="H2" s="119" t="inlineStr">
+        <is>
+          <t>Sem acesso aos dados e informações. Técnica impossibilitada atuar na UVR</t>
+        </is>
+      </c>
       <c r="I2" s="119" t="n"/>
       <c r="J2" s="119" t="inlineStr">
         <is>
@@ -12273,7 +12306,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H3" s="119" t="n"/>
+      <c r="H3" s="119" t="inlineStr">
+        <is>
+          <t>Não houve comercialização. Transferência da estrutura antiga para nova UVR iniciou atividades em 21 de outubro</t>
+        </is>
+      </c>
       <c r="I3" s="119" t="n"/>
       <c r="J3" s="119" t="inlineStr">
         <is>
@@ -12342,18 +12379,26 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="119" t="n"/>
+      <c r="E5" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="119" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
       <c r="G5" s="128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H5" s="119" t="n"/>
+      <c r="H5" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mudança de técnico </t>
+        </is>
+      </c>
       <c r="I5" s="119" t="n"/>
       <c r="J5" s="119" t="inlineStr">
         <is>
@@ -12382,12 +12427,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="119" t="n"/>
+      <c r="E6" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="119" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
       <c r="G6" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12422,12 +12471,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F7" s="119" t="n"/>
+      <c r="E7" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F7" s="119" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
       <c r="G7" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12467,10 +12520,12 @@
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F8" s="119" t="n"/>
-      <c r="G8" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="F8" s="135" t="n">
+        <v>45972</v>
+      </c>
+      <c r="G8" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H8" s="119" t="n"/>
@@ -12502,12 +12557,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F9" s="119" t="n"/>
+      <c r="E9" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="119" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
       <c r="G9" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12542,12 +12601,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F10" s="119" t="n"/>
+      <c r="E10" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G10" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12582,12 +12645,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="119" t="n"/>
+      <c r="E11" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G11" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12622,12 +12689,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="119" t="n"/>
+      <c r="E12" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G12" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12662,12 +12733,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="119" t="n"/>
+      <c r="E13" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G13" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12702,12 +12777,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="119" t="n"/>
+      <c r="E14" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G14" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12742,12 +12821,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="119" t="n"/>
+      <c r="E15" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G15" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12782,12 +12865,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="119" t="n"/>
+      <c r="E16" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="119" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
       <c r="G16" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12822,12 +12909,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F17" s="119" t="n"/>
+      <c r="E17" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G17" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12873,7 +12964,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H18" s="119" t="n"/>
+      <c r="H18" s="119" t="inlineStr">
+        <is>
+          <t>Está em processode mudança de técnica, Enviará até 14/11</t>
+        </is>
+      </c>
       <c r="I18" s="119" t="n"/>
       <c r="J18" s="119" t="inlineStr">
         <is>
@@ -12902,9 +12997,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E19" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F19" s="119" t="n"/>
@@ -12913,7 +13008,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H19" s="119" t="n"/>
+      <c r="H19" s="119" t="inlineStr">
+        <is>
+          <t>Associação iniciou suas atividades em 27/10, logo sem dados para esse mês</t>
+        </is>
+      </c>
       <c r="I19" s="119" t="n"/>
       <c r="J19" s="119" t="inlineStr">
         <is>
@@ -12952,9 +13051,9 @@
           <t>30/10/2025</t>
         </is>
       </c>
-      <c r="G20" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G20" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H20" s="119" t="n"/>
@@ -12986,12 +13085,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="119" t="n"/>
+      <c r="E21" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G21" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13026,12 +13129,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="119" t="n"/>
+      <c r="E22" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="119" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
       <c r="G22" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13066,12 +13173,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="119" t="n"/>
+      <c r="E23" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="119" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
       <c r="G23" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13106,12 +13217,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="119" t="n"/>
+      <c r="E24" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="119" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
       <c r="G24" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13186,15 +13301,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="119" t="n"/>
-      <c r="G26" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E26" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="G26" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H26" s="119" t="n"/>
@@ -13236,9 +13355,9 @@
           <t>30/10/2025</t>
         </is>
       </c>
-      <c r="G27" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="119" t="n"/>
@@ -13270,15 +13389,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="119" t="n"/>
-      <c r="G28" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E28" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="G28" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H28" s="119" t="n"/>
@@ -13354,12 +13477,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F30" s="119" t="n"/>
+      <c r="E30" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G30" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13434,12 +13561,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="119" t="n"/>
+      <c r="E32" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G32" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13474,12 +13605,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="119" t="n"/>
+      <c r="E33" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="119" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
       <c r="G33" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13558,12 +13693,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F35" s="119" t="n"/>
+      <c r="E35" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G35" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13598,12 +13737,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F36" s="119" t="n"/>
+      <c r="E36" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F36" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G36" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13638,12 +13781,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="119" t="n"/>
+      <c r="E37" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G37" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13678,15 +13825,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="119" t="n"/>
-      <c r="G38" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E38" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="G38" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H38" s="119" t="n"/>
@@ -13718,12 +13869,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="119" t="n"/>
+      <c r="E39" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G39" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13758,15 +13913,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="119" t="n"/>
-      <c r="G40" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E40" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="G40" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H40" s="119" t="n"/>
@@ -13842,12 +14001,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="119" t="n"/>
+      <c r="E42" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G42" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13882,12 +14045,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="119" t="n"/>
+      <c r="E43" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G43" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13922,12 +14089,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="119" t="n"/>
+      <c r="E44" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="119" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
       <c r="G44" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13972,9 +14143,9 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="G45" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G45" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H45" s="119" t="n"/>
@@ -14006,15 +14177,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E46" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F46" s="119" t="n"/>
-      <c r="G46" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E46" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F46" s="119" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="G46" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H46" s="119" t="n"/>
@@ -14046,18 +14221,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E47" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F47" s="119" t="n"/>
-      <c r="G47" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H47" s="119" t="n"/>
+      <c r="G47" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H47" s="119" t="inlineStr">
+        <is>
+          <t>sem atividades</t>
+        </is>
+      </c>
       <c r="I47" s="119" t="n"/>
       <c r="J47" s="119" t="inlineStr">
         <is>
@@ -14086,15 +14265,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="119" t="n"/>
-      <c r="G48" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E48" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="119" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="G48" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H48" s="119" t="n"/>
@@ -14136,9 +14319,9 @@
           <t>28/10/2025</t>
         </is>
       </c>
-      <c r="G49" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G49" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H49" s="119" t="n"/>
@@ -14170,12 +14353,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F50" s="119" t="n"/>
+      <c r="E50" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F50" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
       <c r="G50" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14210,15 +14397,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="119" t="n"/>
-      <c r="G51" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E51" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="119" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="G51" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H51" s="119" t="n"/>
@@ -14260,9 +14451,9 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="G52" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="119" t="n"/>
@@ -14305,7 +14496,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H53" s="119" t="n"/>
+      <c r="H53" s="119" t="inlineStr">
+        <is>
+          <t>Técnico afastado</t>
+        </is>
+      </c>
       <c r="I53" s="119" t="n"/>
       <c r="J53" s="119" t="inlineStr">
         <is>
@@ -14374,15 +14569,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="119" t="n"/>
-      <c r="G55" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E55" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="119" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="G55" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H55" s="119" t="n"/>
@@ -14414,12 +14613,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="119" t="n"/>
+      <c r="E56" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="119" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G56" s="128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14454,15 +14657,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F57" s="119" t="n"/>
-      <c r="G57" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E57" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="119" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="G57" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="119" t="n"/>
@@ -14494,15 +14701,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="134" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="119" t="n"/>
-      <c r="G58" s="128" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E58" s="122" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="119" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="G58" s="121" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H58" s="119" t="n"/>
@@ -14551,7 +14762,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14589,10 +14800,10 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="77" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -14675,14 +14886,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="119" t="n"/>
+      <c r="E2" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F2" s="119" t="n"/>
       <c r="G2" s="128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="119" t="n"/>
+      <c r="H2" s="119" t="inlineStr">
+        <is>
+          <t>Sem acesso aos dados e informações. Técnica impossibilitada atuar na UVR</t>
+        </is>
+      </c>
       <c r="I2" s="119" t="n"/>
       <c r="J2" s="119" t="inlineStr">
         <is>
@@ -16748,7 +16967,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16786,10 +17005,10 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="77" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -16872,14 +17091,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="119" t="n"/>
+      <c r="E2" s="120" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F2" s="119" t="n"/>
       <c r="G2" s="128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="119" t="n"/>
+      <c r="H2" s="119" t="inlineStr">
+        <is>
+          <t>Sem acesso aos dados e informações. Técnica impossibilitada atuar na UVR</t>
+        </is>
+      </c>
       <c r="I2" s="119" t="n"/>
       <c r="J2" s="119" t="inlineStr">
         <is>
@@ -18945,7 +19172,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18970,7 +19197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -18982,7 +19209,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -19139,9 +19366,54 @@
       </c>
       <c r="K3" s="119" t="n"/>
     </row>
+    <row r="4">
+      <c r="A4" s="125" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="B4" s="119" t="inlineStr">
+        <is>
+          <t>Cambará</t>
+        </is>
+      </c>
+      <c r="C4" s="119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="119" t="inlineStr">
+        <is>
+          <t>Eunice Fernandes Gonzaga</t>
+        </is>
+      </c>
+      <c r="E4" s="119" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F4" s="119" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G4" s="119" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H4" s="119" t="inlineStr"/>
+      <c r="I4" s="119" t="inlineStr"/>
+      <c r="J4" s="119" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" s="119" t="inlineStr"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="G2:G4">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="16" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -19149,7 +19421,7 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="16" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -19158,7 +19430,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G2:G3 J2:J3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+    <dataValidation sqref="G2:G4 J2:J4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
   </dataValidations>
@@ -57104,7 +57376,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59813,7 +60085,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62534,7 +62806,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65247,7 +65519,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67936,7 +68208,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -70609,7 +70881,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="22" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="24" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
